--- a/SCADA-Data/爆管数据.xlsx
+++ b/SCADA-Data/爆管数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="压力SPC" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>压力SPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,12 +77,100 @@
     <t>1倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>10/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未检测到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +185,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +212,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -130,10 +231,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,20 +519,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:BZ71"/>
+  <dimension ref="A3:BZ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D4" s="2">
         <v>1</v>
       </c>
@@ -471,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -521,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -538,7 +646,10 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
       <c r="B7">
         <v>788</v>
       </c>
@@ -591,7 +702,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
       <c r="B8">
         <v>375</v>
       </c>
@@ -644,7 +758,10 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
       <c r="B9">
         <v>0</v>
       </c>
@@ -697,7 +814,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
       <c r="B10">
         <v>0</v>
       </c>
@@ -750,7 +870,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
       <c r="B11">
         <v>374</v>
       </c>
@@ -803,7 +926,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
       <c r="B12">
         <v>375</v>
       </c>
@@ -856,11 +982,14 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4">
         <v>576</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>587</v>
       </c>
       <c r="D13">
@@ -909,7 +1038,10 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
       <c r="B14">
         <v>0</v>
       </c>
@@ -962,7 +1094,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
       <c r="B15">
         <v>785</v>
       </c>
@@ -981,7 +1116,7 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15">
@@ -1015,7 +1150,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
       <c r="B16">
         <v>782</v>
       </c>
@@ -1068,7 +1206,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>11</v>
+      </c>
       <c r="B17">
         <v>753</v>
       </c>
@@ -1121,7 +1262,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>12</v>
+      </c>
       <c r="B18">
         <v>0</v>
       </c>
@@ -1174,7 +1318,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>13</v>
+      </c>
       <c r="B19">
         <v>753</v>
       </c>
@@ -1227,7 +1374,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>14</v>
+      </c>
       <c r="B20">
         <v>782</v>
       </c>
@@ -1280,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D21" s="2">
         <v>7</v>
       </c>
@@ -1324,7 +1474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -1374,7 +1524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1391,7 +1541,10 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
       <c r="B24">
         <v>375</v>
       </c>
@@ -1525,7 +1678,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
       <c r="B25">
         <v>9</v>
       </c>
@@ -1544,10 +1700,10 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>563</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>564</v>
       </c>
       <c r="J25">
@@ -1659,7 +1815,10 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
       <c r="B26">
         <v>783</v>
       </c>
@@ -1793,7 +1952,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
       <c r="B27">
         <v>373</v>
       </c>
@@ -1927,7 +2089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>5</v>
+      </c>
       <c r="B28">
         <v>371</v>
       </c>
@@ -2061,7 +2226,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
       <c r="B29">
         <v>374</v>
       </c>
@@ -2195,23 +2363,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B30">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
         <v>560</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>563</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
         <v>576</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>587</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>0</v>
       </c>
       <c r="H30">
@@ -2329,7 +2500,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8</v>
+      </c>
       <c r="B31">
         <v>782</v>
       </c>
@@ -2463,7 +2637,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>9</v>
+      </c>
       <c r="B32">
         <v>371</v>
       </c>
@@ -2597,7 +2774,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10</v>
+      </c>
       <c r="B33">
         <v>371</v>
       </c>
@@ -2731,7 +2911,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>11</v>
+      </c>
       <c r="B34">
         <v>373</v>
       </c>
@@ -2865,7 +3048,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>12</v>
+      </c>
       <c r="B35">
         <v>782</v>
       </c>
@@ -2999,7 +3185,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>13</v>
+      </c>
       <c r="B36">
         <v>370</v>
       </c>
@@ -3133,7 +3322,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>14</v>
+      </c>
       <c r="B37">
         <v>371</v>
       </c>
@@ -3267,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D38" s="2">
         <v>13</v>
       </c>
@@ -3311,7 +3503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3361,7 +3553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
@@ -3380,7 +3572,10 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>1</v>
+      </c>
       <c r="B41">
         <v>373</v>
       </c>
@@ -3390,10 +3585,10 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>562</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>565</v>
       </c>
       <c r="G41">
@@ -3577,7 +3772,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2</v>
+      </c>
       <c r="B42">
         <v>6</v>
       </c>
@@ -3774,7 +3972,10 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="43" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>3</v>
+      </c>
       <c r="B43">
         <v>743</v>
       </c>
@@ -3971,7 +4172,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4</v>
+      </c>
       <c r="B44">
         <v>75</v>
       </c>
@@ -3990,19 +4194,19 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <v>561</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <v>564</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
         <v>635</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="4">
         <v>640</v>
       </c>
       <c r="M44">
@@ -4168,7 +4372,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>5</v>
+      </c>
       <c r="B45">
         <v>6</v>
       </c>
@@ -4365,7 +4572,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>6</v>
+      </c>
       <c r="B46">
         <v>10</v>
       </c>
@@ -4562,7 +4772,10 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="47" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>7</v>
+      </c>
       <c r="B47">
         <v>233</v>
       </c>
@@ -4581,28 +4794,28 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>559</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>567</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
         <v>575</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="4">
         <v>588</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
         <v>636</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="4">
         <v>640</v>
       </c>
       <c r="P47">
@@ -4759,7 +4972,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>8</v>
+      </c>
       <c r="B48">
         <v>369</v>
       </c>
@@ -4956,7 +5172,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>9</v>
+      </c>
       <c r="B49">
         <v>369</v>
       </c>
@@ -5153,7 +5372,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>10</v>
+      </c>
       <c r="B50">
         <v>74</v>
       </c>
@@ -5172,19 +5394,19 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <v>560</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>564</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
         <v>633</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="4">
         <v>644</v>
       </c>
       <c r="M50">
@@ -5350,7 +5572,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>11</v>
+      </c>
       <c r="B51">
         <v>371</v>
       </c>
@@ -5360,37 +5585,37 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>561</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>566</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
         <v>617</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <v>624</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
         <v>630</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="4">
         <v>650</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
         <v>661</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="4">
         <v>677</v>
       </c>
       <c r="P51">
@@ -5547,7 +5772,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>12</v>
+      </c>
       <c r="B52">
         <v>370</v>
       </c>
@@ -5557,10 +5785,10 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>559</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>562</v>
       </c>
       <c r="G52">
@@ -5744,7 +5972,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>13</v>
+      </c>
       <c r="B53">
         <v>4</v>
       </c>
@@ -5941,7 +6172,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>14</v>
+      </c>
       <c r="B54">
         <v>73</v>
       </c>
@@ -6138,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D55" s="2">
         <v>22</v>
       </c>
@@ -6182,7 +6416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>4</v>
       </c>
@@ -6232,7 +6466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -6249,7 +6483,10 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>1</v>
+      </c>
       <c r="B58">
         <v>6</v>
       </c>
@@ -6313,37 +6550,37 @@
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="4">
         <v>560</v>
       </c>
-      <c r="X58">
+      <c r="X58" s="4">
         <v>568</v>
       </c>
       <c r="Y58">
         <v>0</v>
       </c>
-      <c r="Z58">
+      <c r="Z58" s="4">
         <v>579</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" s="4">
         <v>586</v>
       </c>
       <c r="AB58">
         <v>0</v>
       </c>
-      <c r="AC58">
+      <c r="AC58" s="4">
         <v>614</v>
       </c>
-      <c r="AD58">
+      <c r="AD58" s="4">
         <v>651</v>
       </c>
       <c r="AE58">
         <v>0</v>
       </c>
-      <c r="AF58">
+      <c r="AF58" s="4">
         <v>657</v>
       </c>
-      <c r="AG58">
+      <c r="AG58" s="4">
         <v>679</v>
       </c>
       <c r="AH58">
@@ -6482,7 +6719,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2</v>
+      </c>
       <c r="B59">
         <v>5</v>
       </c>
@@ -6582,37 +6822,37 @@
       <c r="AH59">
         <v>0</v>
       </c>
-      <c r="AI59">
+      <c r="AI59" s="4">
         <v>560</v>
       </c>
-      <c r="AJ59">
+      <c r="AJ59" s="4">
         <v>572</v>
       </c>
       <c r="AK59">
         <v>0</v>
       </c>
-      <c r="AL59">
+      <c r="AL59" s="4">
         <v>577</v>
       </c>
-      <c r="AM59">
+      <c r="AM59" s="4">
         <v>588</v>
       </c>
       <c r="AN59">
         <v>0</v>
       </c>
-      <c r="AO59">
+      <c r="AO59" s="4">
         <v>607</v>
       </c>
-      <c r="AP59">
+      <c r="AP59" s="4">
         <v>653</v>
       </c>
       <c r="AQ59">
         <v>0</v>
       </c>
-      <c r="AR59">
+      <c r="AR59" s="4">
         <v>658</v>
       </c>
-      <c r="AS59">
+      <c r="AS59" s="4">
         <v>678</v>
       </c>
       <c r="AT59">
@@ -6715,7 +6955,10 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="60" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>3</v>
+      </c>
       <c r="B60">
         <v>70</v>
       </c>
@@ -6725,19 +6968,19 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>612</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="4">
         <v>619</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
         <v>626</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="4">
         <v>645</v>
       </c>
       <c r="J60">
@@ -6948,7 +7191,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4</v>
+      </c>
       <c r="B61">
         <v>4</v>
       </c>
@@ -7021,28 +7267,28 @@
       <c r="Y61">
         <v>0</v>
       </c>
-      <c r="Z61">
+      <c r="Z61" s="4">
         <v>559</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" s="4">
         <v>568</v>
       </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
+      <c r="AB61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="4">
         <v>606</v>
       </c>
-      <c r="AD61">
+      <c r="AD61" s="4">
         <v>651</v>
       </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
+      <c r="AE61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="4">
         <v>656</v>
       </c>
-      <c r="AG61">
+      <c r="AG61" s="4">
         <v>675</v>
       </c>
       <c r="AH61">
@@ -7181,7 +7427,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>5</v>
+      </c>
       <c r="B62">
         <v>4</v>
       </c>
@@ -7263,31 +7512,31 @@
       <c r="AB62">
         <v>0</v>
       </c>
-      <c r="AC62">
+      <c r="AC62" s="4">
         <v>558</v>
       </c>
-      <c r="AD62">
+      <c r="AD62" s="4">
         <v>569</v>
       </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
+      <c r="AE62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="4">
         <v>579</v>
       </c>
-      <c r="AG62">
+      <c r="AG62" s="4">
         <v>586</v>
       </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
+      <c r="AH62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="4">
         <v>605</v>
       </c>
-      <c r="AJ62">
+      <c r="AJ62" s="4">
         <v>688</v>
       </c>
-      <c r="AK62">
+      <c r="AK62" s="4">
         <v>0</v>
       </c>
       <c r="AL62">
@@ -7414,7 +7663,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>6</v>
+      </c>
       <c r="B63">
         <v>7</v>
       </c>
@@ -7487,28 +7739,28 @@
       <c r="Y63">
         <v>0</v>
       </c>
-      <c r="Z63">
+      <c r="Z63" s="4">
         <v>560</v>
       </c>
-      <c r="AA63">
+      <c r="AA63" s="4">
         <v>572</v>
       </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
+      <c r="AB63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="4">
         <v>580</v>
       </c>
-      <c r="AD63">
+      <c r="AD63" s="4">
         <v>588</v>
       </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
+      <c r="AE63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="4">
         <v>606</v>
       </c>
-      <c r="AG63">
+      <c r="AG63" s="4">
         <v>668</v>
       </c>
       <c r="AH63">
@@ -7647,7 +7899,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>7</v>
+      </c>
       <c r="B64">
         <v>4</v>
       </c>
@@ -7711,37 +7966,37 @@
       <c r="V64">
         <v>0</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="4">
         <v>558</v>
       </c>
-      <c r="X64">
+      <c r="X64" s="4">
         <v>570</v>
       </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
+      <c r="Y64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="4">
         <v>574</v>
       </c>
-      <c r="AA64">
+      <c r="AA64" s="4">
         <v>590</v>
       </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
+      <c r="AB64" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="4">
         <v>595</v>
       </c>
-      <c r="AD64">
+      <c r="AD64" s="4">
         <v>648</v>
       </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-      <c r="AF64">
+      <c r="AE64" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="4">
         <v>657</v>
       </c>
-      <c r="AG64">
+      <c r="AG64" s="4">
         <v>664</v>
       </c>
       <c r="AH64">
@@ -7880,7 +8135,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>8</v>
+      </c>
       <c r="B65">
         <v>2</v>
       </c>
@@ -7899,28 +8157,28 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="4">
         <v>557</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="4">
         <v>564</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
         <v>611</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="4">
         <v>618</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
         <v>624</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="4">
         <v>645</v>
       </c>
       <c r="P65">
@@ -8113,7 +8371,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>9</v>
+      </c>
       <c r="B66">
         <v>124</v>
       </c>
@@ -8168,31 +8429,31 @@
       <c r="S66">
         <v>0</v>
       </c>
-      <c r="T66">
+      <c r="T66" s="4">
         <v>557</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="4">
         <v>568</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
+      <c r="V66" s="4">
+        <v>0</v>
+      </c>
+      <c r="W66" s="4">
         <v>578</v>
       </c>
-      <c r="X66">
+      <c r="X66" s="4">
         <v>585</v>
       </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
+      <c r="Y66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="4">
         <v>605</v>
       </c>
-      <c r="AA66">
+      <c r="AA66" s="4">
         <v>677</v>
       </c>
-      <c r="AB66">
+      <c r="AB66" s="4">
         <v>0</v>
       </c>
       <c r="AC66">
@@ -8346,7 +8607,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>10</v>
+      </c>
       <c r="B67">
         <v>4</v>
       </c>
@@ -8419,19 +8683,19 @@
       <c r="Y67">
         <v>0</v>
       </c>
-      <c r="Z67">
+      <c r="Z67" s="4">
         <v>558</v>
       </c>
-      <c r="AA67">
+      <c r="AA67" s="4">
         <v>569</v>
       </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
+      <c r="AB67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="4">
         <v>604</v>
       </c>
-      <c r="AD67">
+      <c r="AD67" s="4">
         <v>677</v>
       </c>
       <c r="AE67">
@@ -8579,7 +8843,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>11</v>
+      </c>
       <c r="B68">
         <v>5</v>
       </c>
@@ -8652,19 +8919,19 @@
       <c r="Y68">
         <v>0</v>
       </c>
-      <c r="Z68">
+      <c r="Z68" s="4">
         <v>559</v>
       </c>
-      <c r="AA68">
+      <c r="AA68" s="4">
         <v>571</v>
       </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
+      <c r="AB68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="4">
         <v>606</v>
       </c>
-      <c r="AD68">
+      <c r="AD68" s="4">
         <v>702</v>
       </c>
       <c r="AE68">
@@ -8812,7 +9079,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>12</v>
+      </c>
       <c r="B69">
         <v>71</v>
       </c>
@@ -8840,28 +9110,28 @@
       <c r="J69">
         <v>0</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="4">
         <v>558</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="4">
         <v>566</v>
       </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4">
         <v>612</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="4">
         <v>621</v>
       </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4">
         <v>625</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="4">
         <v>646</v>
       </c>
       <c r="S69">
@@ -9045,7 +9315,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>13</v>
+      </c>
       <c r="B70">
         <v>2</v>
       </c>
@@ -9136,31 +9409,31 @@
       <c r="AE70">
         <v>0</v>
       </c>
-      <c r="AF70">
+      <c r="AF70" s="4">
         <v>556</v>
       </c>
-      <c r="AG70">
+      <c r="AG70" s="4">
         <v>569</v>
       </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-      <c r="AI70">
+      <c r="AH70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="4">
         <v>576</v>
       </c>
-      <c r="AJ70">
+      <c r="AJ70" s="4">
         <v>585</v>
       </c>
-      <c r="AK70">
-        <v>0</v>
-      </c>
-      <c r="AL70">
+      <c r="AK70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="4">
         <v>603</v>
       </c>
-      <c r="AM70">
+      <c r="AM70" s="4">
         <v>678</v>
       </c>
-      <c r="AN70">
+      <c r="AN70" s="4">
         <v>0</v>
       </c>
       <c r="AO70">
@@ -9278,7 +9551,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>14</v>
+      </c>
       <c r="B71">
         <v>3</v>
       </c>
@@ -9360,28 +9636,28 @@
       <c r="AB71">
         <v>0</v>
       </c>
-      <c r="AC71">
+      <c r="AC71" s="4">
         <v>557</v>
       </c>
-      <c r="AD71">
+      <c r="AD71" s="4">
         <v>568</v>
       </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
+      <c r="AE71" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="4">
         <v>577</v>
       </c>
-      <c r="AG71">
+      <c r="AG71" s="4">
         <v>585</v>
       </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
+      <c r="AH71" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="4">
         <v>604</v>
       </c>
-      <c r="AJ71">
+      <c r="AJ71" s="4">
         <v>698</v>
       </c>
       <c r="AK71">
@@ -9509,6 +9785,125 @@
       </c>
       <c r="BZ71">
         <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" s="6">
+        <v>3</v>
+      </c>
+      <c r="G75" s="6">
+        <v>4</v>
+      </c>
+      <c r="H75" s="6">
+        <v>5</v>
+      </c>
+      <c r="I75" s="6">
+        <v>6</v>
+      </c>
+      <c r="J75" s="6">
+        <v>7</v>
+      </c>
+      <c r="K75" s="6">
+        <v>8</v>
+      </c>
+      <c r="L75" s="6">
+        <v>9</v>
+      </c>
+      <c r="M75" s="6">
+        <v>10</v>
+      </c>
+      <c r="N75" s="6">
+        <v>11</v>
+      </c>
+      <c r="O75" s="6">
+        <v>12</v>
+      </c>
+      <c r="P75" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="D76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q76" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77">
+        <v>5678</v>
+      </c>
+      <c r="K77">
+        <v>125678</v>
+      </c>
+      <c r="O77">
+        <v>125678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9520,25 +9915,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:BW81"/>
+  <dimension ref="A4:BW88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -9582,7 +9977,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9">
         <v>788</v>
       </c>
@@ -9617,7 +10015,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10">
         <v>801</v>
       </c>
@@ -9652,7 +10053,10 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
       <c r="B11">
         <v>0</v>
       </c>
@@ -9687,7 +10091,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
       <c r="B12">
         <v>0</v>
       </c>
@@ -9722,7 +10129,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
       <c r="B13">
         <v>783</v>
       </c>
@@ -9757,7 +10167,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
       <c r="B14">
         <v>810</v>
       </c>
@@ -9792,7 +10205,10 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
       <c r="B15">
         <v>576</v>
       </c>
@@ -9827,7 +10243,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8</v>
+      </c>
       <c r="B16">
         <v>0</v>
       </c>
@@ -9862,7 +10281,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
       <c r="B17">
         <v>783</v>
       </c>
@@ -9897,7 +10319,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10</v>
+      </c>
       <c r="B18">
         <v>782</v>
       </c>
@@ -9932,7 +10357,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>11</v>
+      </c>
       <c r="B19">
         <v>752</v>
       </c>
@@ -9967,7 +10395,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>12</v>
+      </c>
       <c r="B20">
         <v>0</v>
       </c>
@@ -10002,7 +10433,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>13</v>
+      </c>
       <c r="B21">
         <v>747</v>
       </c>
@@ -10037,7 +10471,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>14</v>
+      </c>
       <c r="B22">
         <v>783</v>
       </c>
@@ -10072,12 +10509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
         <v>7</v>
       </c>
@@ -10121,7 +10558,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
       <c r="B28">
         <v>375</v>
       </c>
@@ -10228,7 +10668,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
       <c r="B29">
         <v>8</v>
       </c>
@@ -10335,7 +10778,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
       <c r="B30">
         <v>783</v>
       </c>
@@ -10442,7 +10888,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
       <c r="B31">
         <v>372</v>
       </c>
@@ -10549,7 +10998,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
       <c r="B32">
         <v>372</v>
       </c>
@@ -10656,7 +11108,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
       <c r="B33">
         <v>374</v>
       </c>
@@ -10763,7 +11218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>7</v>
+      </c>
       <c r="B34">
         <v>576</v>
       </c>
@@ -10870,7 +11328,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8</v>
+      </c>
       <c r="B35">
         <v>782</v>
       </c>
@@ -10977,7 +11438,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>9</v>
+      </c>
       <c r="B36">
         <v>370</v>
       </c>
@@ -11084,7 +11548,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>10</v>
+      </c>
       <c r="B37">
         <v>371</v>
       </c>
@@ -11191,7 +11658,10 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="38" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>11</v>
+      </c>
       <c r="B38">
         <v>371</v>
       </c>
@@ -11298,7 +11768,10 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="39" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>12</v>
+      </c>
       <c r="B39">
         <v>782</v>
       </c>
@@ -11405,7 +11878,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>13</v>
+      </c>
       <c r="B40">
         <v>372</v>
       </c>
@@ -11512,7 +11988,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>14</v>
+      </c>
       <c r="B41">
         <v>372</v>
       </c>
@@ -11619,12 +12098,12 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="44" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2">
         <v>13</v>
       </c>
@@ -11668,7 +12147,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
       <c r="B47">
         <v>372</v>
       </c>
@@ -11874,7 +12356,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2</v>
+      </c>
       <c r="B48">
         <v>6</v>
       </c>
@@ -12080,7 +12565,10 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="49" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3</v>
+      </c>
       <c r="B49">
         <v>743</v>
       </c>
@@ -12286,7 +12774,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4</v>
+      </c>
       <c r="B50">
         <v>8</v>
       </c>
@@ -12314,10 +12805,10 @@
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="4">
         <v>635</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="4">
         <v>641</v>
       </c>
       <c r="M50">
@@ -12492,7 +12983,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>5</v>
+      </c>
       <c r="B51">
         <v>6</v>
       </c>
@@ -12698,7 +13192,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>6</v>
+      </c>
       <c r="B52">
         <v>10</v>
       </c>
@@ -12904,7 +13401,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>7</v>
+      </c>
       <c r="B53">
         <v>234</v>
       </c>
@@ -13110,7 +13610,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>8</v>
+      </c>
       <c r="B54">
         <v>743</v>
       </c>
@@ -13316,7 +13819,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>9</v>
+      </c>
       <c r="B55">
         <v>369</v>
       </c>
@@ -13522,7 +14028,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10</v>
+      </c>
       <c r="B56">
         <v>74</v>
       </c>
@@ -13728,7 +14237,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>11</v>
+      </c>
       <c r="B57">
         <v>370</v>
       </c>
@@ -13934,7 +14446,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>12</v>
+      </c>
       <c r="B58">
         <v>372</v>
       </c>
@@ -14140,7 +14655,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>13</v>
+      </c>
       <c r="B59">
         <v>4</v>
       </c>
@@ -14346,7 +14864,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>14</v>
+      </c>
       <c r="B60">
         <v>74</v>
       </c>
@@ -14552,12 +15073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:69" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:75" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="2">
         <v>22</v>
       </c>
@@ -14601,7 +15122,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
       <c r="B68">
         <v>6</v>
       </c>
@@ -14665,37 +15189,37 @@
       <c r="V68">
         <v>0</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="4">
         <v>559</v>
       </c>
-      <c r="X68">
+      <c r="X68" s="4">
         <v>570</v>
       </c>
       <c r="Y68">
         <v>0</v>
       </c>
-      <c r="Z68">
+      <c r="Z68" s="4">
         <v>580</v>
       </c>
-      <c r="AA68">
+      <c r="AA68" s="4">
         <v>587</v>
       </c>
       <c r="AB68">
         <v>0</v>
       </c>
-      <c r="AC68">
+      <c r="AC68" s="4">
         <v>612</v>
       </c>
-      <c r="AD68">
+      <c r="AD68" s="4">
         <v>653</v>
       </c>
       <c r="AE68">
         <v>0</v>
       </c>
-      <c r="AF68">
+      <c r="AF68" s="4">
         <v>659</v>
       </c>
-      <c r="AG68">
+      <c r="AG68" s="4">
         <v>685</v>
       </c>
       <c r="AH68">
@@ -14825,7 +15349,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2</v>
+      </c>
       <c r="B69">
         <v>4</v>
       </c>
@@ -14916,37 +15443,37 @@
       <c r="AE69">
         <v>0</v>
       </c>
-      <c r="AF69">
+      <c r="AF69" s="4">
         <v>559</v>
       </c>
-      <c r="AG69">
+      <c r="AG69" s="4">
         <v>573</v>
       </c>
       <c r="AH69">
         <v>0</v>
       </c>
-      <c r="AI69">
+      <c r="AI69" s="4">
         <v>578</v>
       </c>
-      <c r="AJ69">
+      <c r="AJ69" s="4">
         <v>588</v>
       </c>
       <c r="AK69">
         <v>0</v>
       </c>
-      <c r="AL69">
+      <c r="AL69" s="4">
         <v>607</v>
       </c>
-      <c r="AM69">
+      <c r="AM69" s="4">
         <v>653</v>
       </c>
       <c r="AN69">
         <v>0</v>
       </c>
-      <c r="AO69">
+      <c r="AO69" s="4">
         <v>658</v>
       </c>
-      <c r="AP69">
+      <c r="AP69" s="4">
         <v>679</v>
       </c>
       <c r="AQ69">
@@ -15049,7 +15576,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>3</v>
+      </c>
       <c r="B70">
         <v>2</v>
       </c>
@@ -15077,19 +15607,19 @@
       <c r="J70">
         <v>0</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="4">
         <v>609</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="4">
         <v>618</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="4">
         <v>627</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="4">
         <v>643</v>
       </c>
       <c r="P70">
@@ -15273,7 +15803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>4</v>
+      </c>
       <c r="B71">
         <v>3</v>
       </c>
@@ -15346,19 +15879,19 @@
       <c r="Y71">
         <v>0</v>
       </c>
-      <c r="Z71">
+      <c r="Z71" s="4">
         <v>558</v>
       </c>
-      <c r="AA71">
+      <c r="AA71" s="4">
         <v>568</v>
       </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
+      <c r="AB71" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="4">
         <v>608</v>
       </c>
-      <c r="AD71">
+      <c r="AD71" s="4">
         <v>677</v>
       </c>
       <c r="AE71">
@@ -15497,7 +16030,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5</v>
+      </c>
       <c r="B72">
         <v>3</v>
       </c>
@@ -15597,19 +16133,19 @@
       <c r="AH72">
         <v>0</v>
       </c>
-      <c r="AI72">
+      <c r="AI72" s="4">
         <v>556</v>
       </c>
-      <c r="AJ72">
+      <c r="AJ72" s="4">
         <v>570</v>
       </c>
-      <c r="AK72">
-        <v>0</v>
-      </c>
-      <c r="AL72">
+      <c r="AK72" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="4">
         <v>605</v>
       </c>
-      <c r="AM72">
+      <c r="AM72" s="4">
         <v>697</v>
       </c>
       <c r="AN72">
@@ -15721,7 +16257,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>6</v>
+      </c>
       <c r="B73">
         <v>7</v>
       </c>
@@ -15803,28 +16342,28 @@
       <c r="AB73">
         <v>0</v>
       </c>
-      <c r="AC73">
+      <c r="AC73" s="4">
         <v>561</v>
       </c>
-      <c r="AD73">
+      <c r="AD73" s="4">
         <v>572</v>
       </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73">
+      <c r="AE73" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="4">
         <v>580</v>
       </c>
-      <c r="AG73">
+      <c r="AG73" s="4">
         <v>588</v>
       </c>
-      <c r="AH73">
-        <v>0</v>
-      </c>
-      <c r="AI73">
+      <c r="AH73" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="4">
         <v>607</v>
       </c>
-      <c r="AJ73">
+      <c r="AJ73" s="4">
         <v>670</v>
       </c>
       <c r="AK73">
@@ -15945,7 +16484,10 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="74" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>7</v>
+      </c>
       <c r="B74">
         <v>4</v>
       </c>
@@ -16018,37 +16560,37 @@
       <c r="Y74">
         <v>0</v>
       </c>
-      <c r="Z74">
+      <c r="Z74" s="4">
         <v>557</v>
       </c>
-      <c r="AA74">
+      <c r="AA74" s="4">
         <v>571</v>
       </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-      <c r="AC74">
+      <c r="AB74" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="4">
         <v>574</v>
       </c>
-      <c r="AD74">
+      <c r="AD74" s="4">
         <v>590</v>
       </c>
-      <c r="AE74">
-        <v>0</v>
-      </c>
-      <c r="AF74">
+      <c r="AE74" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="4">
         <v>597</v>
       </c>
-      <c r="AG74">
+      <c r="AG74" s="4">
         <v>649</v>
       </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
-      <c r="AI74">
+      <c r="AH74" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="4">
         <v>658</v>
       </c>
-      <c r="AJ74">
+      <c r="AJ74" s="4">
         <v>670</v>
       </c>
       <c r="AK74">
@@ -16169,7 +16711,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8</v>
+      </c>
       <c r="B75">
         <v>1</v>
       </c>
@@ -16393,7 +16938,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9</v>
+      </c>
       <c r="B76">
         <v>123</v>
       </c>
@@ -16617,7 +17165,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>10</v>
+      </c>
       <c r="B77">
         <v>3</v>
       </c>
@@ -16841,7 +17392,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>11</v>
+      </c>
       <c r="B78">
         <v>4</v>
       </c>
@@ -17065,7 +17619,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>12</v>
+      </c>
       <c r="B79">
         <v>4</v>
       </c>
@@ -17289,7 +17846,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>13</v>
+      </c>
       <c r="B80">
         <v>2</v>
       </c>
@@ -17513,7 +18073,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>14</v>
+      </c>
       <c r="B81">
         <v>2</v>
       </c>
@@ -17736,6 +18299,96 @@
       <c r="BW81">
         <v>0</v>
       </c>
+    </row>
+    <row r="86" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="6">
+        <v>2</v>
+      </c>
+      <c r="E86" s="6">
+        <v>3</v>
+      </c>
+      <c r="F86" s="6">
+        <v>4</v>
+      </c>
+      <c r="G86" s="6">
+        <v>5</v>
+      </c>
+      <c r="H86" s="6">
+        <v>6</v>
+      </c>
+      <c r="I86" s="6">
+        <v>7</v>
+      </c>
+      <c r="J86" s="6">
+        <v>8</v>
+      </c>
+      <c r="K86" s="6">
+        <v>9</v>
+      </c>
+      <c r="L86" s="6">
+        <v>10</v>
+      </c>
+      <c r="M86" s="6">
+        <v>11</v>
+      </c>
+      <c r="N86" s="6">
+        <v>12</v>
+      </c>
+      <c r="O86" s="6">
+        <v>13</v>
+      </c>
+      <c r="P86" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="C87" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SCADA-Data/爆管数据.xlsx
+++ b/SCADA-Data/爆管数据.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="压力SPC" sheetId="1" r:id="rId1"/>
     <sheet name="压力SPC+小波降噪" sheetId="2" r:id="rId2"/>
+    <sheet name="压力差SPC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>压力SPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,12 +166,44 @@
     <t>未检测到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误报率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏报率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +225,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +257,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -231,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -239,6 +302,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:BZ78"/>
+  <dimension ref="A3:BZ92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8607,239 +8675,239 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67" spans="1:78" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
         <v>10</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="11">
         <v>4</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="11">
         <v>16</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="11">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
         <v>62</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="11">
         <v>90</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11">
         <v>124</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="11">
         <v>144</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
+      <c r="J67" s="11">
+        <v>0</v>
+      </c>
+      <c r="K67" s="11">
         <v>217</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="11">
         <v>241</v>
       </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
+      <c r="M67" s="11">
+        <v>0</v>
+      </c>
+      <c r="N67" s="11">
         <v>368</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="11">
         <v>384</v>
       </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
+      <c r="P67" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="11">
         <v>392</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="11">
         <v>401</v>
       </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
+      <c r="S67" s="11">
+        <v>0</v>
+      </c>
+      <c r="T67" s="11">
         <v>521</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="11">
         <v>530</v>
       </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
+      <c r="V67" s="11">
+        <v>0</v>
+      </c>
+      <c r="W67" s="11">
         <v>536</v>
       </c>
-      <c r="X67">
+      <c r="X67" s="11">
         <v>543</v>
       </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="4">
+      <c r="Y67" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="11">
         <v>558</v>
       </c>
-      <c r="AA67" s="4">
+      <c r="AA67" s="11">
         <v>569</v>
       </c>
-      <c r="AB67" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="4">
+      <c r="AB67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="11">
         <v>604</v>
       </c>
-      <c r="AD67" s="4">
+      <c r="AD67" s="11">
         <v>677</v>
       </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
-      <c r="AF67">
+      <c r="AE67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="11">
         <v>680</v>
       </c>
-      <c r="AG67">
+      <c r="AG67" s="11">
         <v>699</v>
       </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
-      <c r="AI67">
+      <c r="AH67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="11">
         <v>740</v>
       </c>
-      <c r="AJ67">
+      <c r="AJ67" s="11">
         <v>826</v>
       </c>
-      <c r="AK67">
-        <v>0</v>
-      </c>
-      <c r="AL67">
+      <c r="AK67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="11">
         <v>835</v>
       </c>
-      <c r="AM67">
+      <c r="AM67" s="11">
         <v>867</v>
       </c>
-      <c r="AN67">
-        <v>0</v>
-      </c>
-      <c r="AO67">
+      <c r="AN67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="11">
         <v>963</v>
       </c>
-      <c r="AP67">
+      <c r="AP67" s="11">
         <v>1002</v>
       </c>
-      <c r="AQ67">
-        <v>0</v>
-      </c>
-      <c r="AR67">
+      <c r="AQ67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="11">
         <v>1010</v>
       </c>
-      <c r="AS67">
+      <c r="AS67" s="11">
         <v>1049</v>
       </c>
-      <c r="AT67">
-        <v>0</v>
-      </c>
-      <c r="AU67">
+      <c r="AT67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="11">
         <v>1140</v>
       </c>
-      <c r="AV67">
+      <c r="AV67" s="11">
         <v>1156</v>
       </c>
-      <c r="AW67">
-        <v>0</v>
-      </c>
-      <c r="AX67">
+      <c r="AW67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="11">
         <v>1165</v>
       </c>
-      <c r="AY67">
+      <c r="AY67" s="11">
         <v>1174</v>
       </c>
-      <c r="AZ67">
-        <v>0</v>
-      </c>
-      <c r="BA67">
+      <c r="AZ67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="11">
         <v>1185</v>
       </c>
-      <c r="BB67">
+      <c r="BB67" s="11">
         <v>1306</v>
       </c>
-      <c r="BC67">
-        <v>0</v>
-      </c>
-      <c r="BD67">
+      <c r="BC67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BD67" s="11">
         <v>1337</v>
       </c>
-      <c r="BE67">
+      <c r="BE67" s="11">
         <v>1380</v>
       </c>
-      <c r="BF67">
-        <v>0</v>
-      </c>
-      <c r="BG67">
-        <v>0</v>
-      </c>
-      <c r="BH67">
-        <v>0</v>
-      </c>
-      <c r="BI67">
-        <v>0</v>
-      </c>
-      <c r="BJ67">
-        <v>0</v>
-      </c>
-      <c r="BK67">
-        <v>0</v>
-      </c>
-      <c r="BL67">
-        <v>0</v>
-      </c>
-      <c r="BM67">
-        <v>0</v>
-      </c>
-      <c r="BN67">
-        <v>0</v>
-      </c>
-      <c r="BO67">
-        <v>0</v>
-      </c>
-      <c r="BP67">
-        <v>0</v>
-      </c>
-      <c r="BQ67">
-        <v>0</v>
-      </c>
-      <c r="BR67">
-        <v>0</v>
-      </c>
-      <c r="BS67">
-        <v>0</v>
-      </c>
-      <c r="BT67">
-        <v>0</v>
-      </c>
-      <c r="BU67">
-        <v>0</v>
-      </c>
-      <c r="BV67">
-        <v>0</v>
-      </c>
-      <c r="BW67">
-        <v>0</v>
-      </c>
-      <c r="BX67">
-        <v>0</v>
-      </c>
-      <c r="BY67">
-        <v>0</v>
-      </c>
-      <c r="BZ67">
+      <c r="BF67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BG67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BH67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BI67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BJ67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BK67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BL67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BM67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BN67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BO67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BP67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BQ67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BR67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BS67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BT67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BU67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BW67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BX67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BY67" s="11">
+        <v>0</v>
+      </c>
+      <c r="BZ67" s="11">
         <v>0</v>
       </c>
     </row>
@@ -9904,6 +9972,232 @@
       </c>
       <c r="N78">
         <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80">
+        <v>52.4</v>
+      </c>
+      <c r="E80">
+        <v>61.5</v>
+      </c>
+      <c r="F80">
+        <v>69.2</v>
+      </c>
+      <c r="G80">
+        <v>57.1</v>
+      </c>
+      <c r="H80">
+        <v>45.5</v>
+      </c>
+      <c r="I80">
+        <v>56.5</v>
+      </c>
+      <c r="J80">
+        <v>60.1</v>
+      </c>
+      <c r="K80">
+        <v>60</v>
+      </c>
+      <c r="L80">
+        <v>44.4</v>
+      </c>
+      <c r="M80">
+        <v>52.6</v>
+      </c>
+      <c r="N80">
+        <v>52.6</v>
+      </c>
+      <c r="O80">
+        <v>64.7</v>
+      </c>
+      <c r="P80">
+        <v>54.5</v>
+      </c>
+      <c r="Q80">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>60</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>40</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>10</v>
+      </c>
+      <c r="N82">
+        <v>10</v>
+      </c>
+      <c r="O82">
+        <v>40</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+      <c r="J89">
+        <v>7</v>
+      </c>
+      <c r="K89">
+        <v>8</v>
+      </c>
+      <c r="L89">
+        <v>9</v>
+      </c>
+      <c r="M89">
+        <v>10</v>
+      </c>
+      <c r="N89">
+        <v>11</v>
+      </c>
+      <c r="O89">
+        <v>12</v>
+      </c>
+      <c r="P89">
+        <v>13</v>
+      </c>
+      <c r="Q89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D90" s="10">
+        <v>22</v>
+      </c>
+      <c r="E90" s="10">
+        <v>24</v>
+      </c>
+      <c r="F90" s="10">
+        <v>15</v>
+      </c>
+      <c r="G90" s="10">
+        <v>21</v>
+      </c>
+      <c r="H90" s="10">
+        <v>23</v>
+      </c>
+      <c r="I90" s="10">
+        <v>25</v>
+      </c>
+      <c r="J90" s="10">
+        <v>23</v>
+      </c>
+      <c r="K90" s="10">
+        <v>14</v>
+      </c>
+      <c r="L90" s="10">
+        <v>20</v>
+      </c>
+      <c r="M90" s="10">
+        <v>22</v>
+      </c>
+      <c r="N90" s="10">
+        <v>20</v>
+      </c>
+      <c r="O90" s="10">
+        <v>18</v>
+      </c>
+      <c r="P90" s="10">
+        <v>22</v>
+      </c>
+      <c r="Q90" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+      <c r="J92">
+        <v>8</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>9</v>
+      </c>
+      <c r="O92">
+        <v>2</v>
+      </c>
+      <c r="P92">
+        <v>6</v>
+      </c>
+      <c r="Q92">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9917,8 +10211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:BW88"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18298,6 +18592,14 @@
       </c>
       <c r="BW81">
         <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:75" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:75" x14ac:dyDescent="0.2">
@@ -18394,4 +18696,5543 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:BX65"/>
+  <sheetViews>
+    <sheetView topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4</v>
+      </c>
+      <c r="O8" s="7">
+        <v>2</v>
+      </c>
+      <c r="P8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>113</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1185</v>
+      </c>
+      <c r="G14">
+        <v>1188</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1338</v>
+      </c>
+      <c r="J14">
+        <v>1341</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1335</v>
+      </c>
+      <c r="D15">
+        <v>1338</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>153</v>
+      </c>
+      <c r="D16">
+        <v>156</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>392</v>
+      </c>
+      <c r="G16">
+        <v>395</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1337</v>
+      </c>
+      <c r="J16">
+        <v>1341</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>835</v>
+      </c>
+      <c r="D17">
+        <v>838</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1337</v>
+      </c>
+      <c r="G17">
+        <v>1340</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>557</v>
+      </c>
+      <c r="D18">
+        <v>562</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>555</v>
+      </c>
+      <c r="D19">
+        <v>558</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>150</v>
+      </c>
+      <c r="D20">
+        <v>154</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1335</v>
+      </c>
+      <c r="G20">
+        <v>1338</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>1336</v>
+      </c>
+      <c r="D21">
+        <v>1339</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>1336</v>
+      </c>
+      <c r="D22">
+        <v>1339</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>1185</v>
+      </c>
+      <c r="D23">
+        <v>1188</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>151</v>
+      </c>
+      <c r="D24">
+        <v>155</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>737</v>
+      </c>
+      <c r="G24">
+        <v>740</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1183</v>
+      </c>
+      <c r="J24">
+        <v>1186</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1336</v>
+      </c>
+      <c r="M24">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>601</v>
+      </c>
+      <c r="D25">
+        <v>604</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1335</v>
+      </c>
+      <c r="G25">
+        <v>1338</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>152</v>
+      </c>
+      <c r="D26">
+        <v>155</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>775</v>
+      </c>
+      <c r="G26">
+        <v>778</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1183</v>
+      </c>
+      <c r="J26">
+        <v>1186</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1335</v>
+      </c>
+      <c r="M26">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="8">
+        <v>16</v>
+      </c>
+      <c r="D30" s="8">
+        <v>23</v>
+      </c>
+      <c r="E30" s="8">
+        <v>18</v>
+      </c>
+      <c r="F30" s="8">
+        <v>18</v>
+      </c>
+      <c r="G30" s="8">
+        <v>24</v>
+      </c>
+      <c r="H30" s="8">
+        <v>23</v>
+      </c>
+      <c r="I30" s="8">
+        <v>17</v>
+      </c>
+      <c r="J30" s="8">
+        <v>21</v>
+      </c>
+      <c r="K30" s="8">
+        <v>17</v>
+      </c>
+      <c r="L30" s="8">
+        <v>18</v>
+      </c>
+      <c r="M30" s="8">
+        <v>20</v>
+      </c>
+      <c r="N30" s="8">
+        <v>19</v>
+      </c>
+      <c r="O30" s="8">
+        <v>25</v>
+      </c>
+      <c r="P30" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>111</v>
+      </c>
+      <c r="D34">
+        <v>112</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>156</v>
+      </c>
+      <c r="G34">
+        <v>157</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>394</v>
+      </c>
+      <c r="J34">
+        <v>395</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>451</v>
+      </c>
+      <c r="M34">
+        <v>452</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>577</v>
+      </c>
+      <c r="P34" s="9">
+        <v>578</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>613</v>
+      </c>
+      <c r="S34" s="9">
+        <v>614</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <v>636</v>
+      </c>
+      <c r="V34" s="9">
+        <v>637</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>740</v>
+      </c>
+      <c r="Y34">
+        <v>741</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>752</v>
+      </c>
+      <c r="AB34">
+        <v>753</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>838</v>
+      </c>
+      <c r="AE34">
+        <v>839</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>876</v>
+      </c>
+      <c r="AH34">
+        <v>877</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>962</v>
+      </c>
+      <c r="AK34">
+        <v>963</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>1139</v>
+      </c>
+      <c r="AN34">
+        <v>1140</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>1165</v>
+      </c>
+      <c r="AQ34">
+        <v>1166</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>1186</v>
+      </c>
+      <c r="AT34">
+        <v>1188</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>1430</v>
+      </c>
+      <c r="AW34">
+        <v>1431</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>0</v>
+      </c>
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
+      <c r="BT34">
+        <v>0</v>
+      </c>
+      <c r="BU34">
+        <v>0</v>
+      </c>
+      <c r="BV34">
+        <v>0</v>
+      </c>
+      <c r="BW34">
+        <v>0</v>
+      </c>
+      <c r="BX34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>111</v>
+      </c>
+      <c r="G35">
+        <v>113</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>154</v>
+      </c>
+      <c r="J35">
+        <v>155</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>394</v>
+      </c>
+      <c r="M35">
+        <v>395</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>448</v>
+      </c>
+      <c r="P35">
+        <v>449</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>478</v>
+      </c>
+      <c r="S35">
+        <v>479</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>487</v>
+      </c>
+      <c r="V35">
+        <v>488</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>506</v>
+      </c>
+      <c r="Y35">
+        <v>507</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>524</v>
+      </c>
+      <c r="AB35">
+        <v>525</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>530</v>
+      </c>
+      <c r="AE35">
+        <v>531</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>534</v>
+      </c>
+      <c r="AH35">
+        <v>535</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>553</v>
+      </c>
+      <c r="AK35">
+        <v>554</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="9">
+        <v>559</v>
+      </c>
+      <c r="AN35" s="9">
+        <v>560</v>
+      </c>
+      <c r="AO35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="9">
+        <v>578</v>
+      </c>
+      <c r="AQ35" s="9">
+        <v>579</v>
+      </c>
+      <c r="AR35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="9">
+        <v>584</v>
+      </c>
+      <c r="AT35" s="9">
+        <v>585</v>
+      </c>
+      <c r="AU35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="9">
+        <v>607</v>
+      </c>
+      <c r="AW35" s="9">
+        <v>608</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>778</v>
+      </c>
+      <c r="AZ35">
+        <v>779</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>916</v>
+      </c>
+      <c r="BC35">
+        <v>917</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>1029</v>
+      </c>
+      <c r="BF35">
+        <v>1030</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>1148</v>
+      </c>
+      <c r="BI35">
+        <v>1149</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>1186</v>
+      </c>
+      <c r="BL35">
+        <v>1188</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>1276</v>
+      </c>
+      <c r="BO35">
+        <v>1277</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>1338</v>
+      </c>
+      <c r="BR35">
+        <v>1340</v>
+      </c>
+      <c r="BS35">
+        <v>0</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+      <c r="BU35">
+        <v>0</v>
+      </c>
+      <c r="BV35">
+        <v>0</v>
+      </c>
+      <c r="BW35">
+        <v>0</v>
+      </c>
+      <c r="BX35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>43</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>108</v>
+      </c>
+      <c r="G36">
+        <v>109</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>478</v>
+      </c>
+      <c r="J36">
+        <v>479</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>503</v>
+      </c>
+      <c r="M36">
+        <v>504</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>574</v>
+      </c>
+      <c r="P36">
+        <v>575</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>601</v>
+      </c>
+      <c r="S36">
+        <v>602</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>652</v>
+      </c>
+      <c r="V36">
+        <v>653</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>664</v>
+      </c>
+      <c r="Y36">
+        <v>665</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>737</v>
+      </c>
+      <c r="AB36">
+        <v>738</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>776</v>
+      </c>
+      <c r="AE36">
+        <v>777</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>859</v>
+      </c>
+      <c r="AH36">
+        <v>860</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>1056</v>
+      </c>
+      <c r="AK36">
+        <v>1057</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>1135</v>
+      </c>
+      <c r="AN36">
+        <v>1137</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>1145</v>
+      </c>
+      <c r="AQ36">
+        <v>1146</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>1162</v>
+      </c>
+      <c r="AT36">
+        <v>1163</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>1183</v>
+      </c>
+      <c r="AW36">
+        <v>1185</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>1211</v>
+      </c>
+      <c r="AZ36">
+        <v>1213</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>1335</v>
+      </c>
+      <c r="BC36">
+        <v>1338</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>0</v>
+      </c>
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>0</v>
+      </c>
+      <c r="BT36">
+        <v>0</v>
+      </c>
+      <c r="BU36">
+        <v>0</v>
+      </c>
+      <c r="BV36">
+        <v>0</v>
+      </c>
+      <c r="BW36">
+        <v>0</v>
+      </c>
+      <c r="BX36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>58</v>
+      </c>
+      <c r="G37">
+        <v>59</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>110</v>
+      </c>
+      <c r="J37">
+        <v>111</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>393</v>
+      </c>
+      <c r="M37">
+        <v>394</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>480</v>
+      </c>
+      <c r="P37">
+        <v>481</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>505</v>
+      </c>
+      <c r="S37">
+        <v>506</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>602</v>
+      </c>
+      <c r="V37">
+        <v>604</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>655</v>
+      </c>
+      <c r="Y37">
+        <v>656</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>739</v>
+      </c>
+      <c r="AB37">
+        <v>740</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>778</v>
+      </c>
+      <c r="AE37">
+        <v>779</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>833</v>
+      </c>
+      <c r="AH37">
+        <v>835</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>837</v>
+      </c>
+      <c r="AK37">
+        <v>838</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>886</v>
+      </c>
+      <c r="AN37">
+        <v>887</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>1138</v>
+      </c>
+      <c r="AQ37">
+        <v>1139</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>1164</v>
+      </c>
+      <c r="AT37">
+        <v>1165</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>1185</v>
+      </c>
+      <c r="AW37">
+        <v>1187</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>1226</v>
+      </c>
+      <c r="AZ37">
+        <v>1227</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>1337</v>
+      </c>
+      <c r="BC37">
+        <v>1339</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <v>0</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>0</v>
+      </c>
+      <c r="BR37">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>0</v>
+      </c>
+      <c r="BT37">
+        <v>0</v>
+      </c>
+      <c r="BU37">
+        <v>0</v>
+      </c>
+      <c r="BV37">
+        <v>0</v>
+      </c>
+      <c r="BW37">
+        <v>0</v>
+      </c>
+      <c r="BX37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>110</v>
+      </c>
+      <c r="D38">
+        <v>111</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>155</v>
+      </c>
+      <c r="G38">
+        <v>156</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>393</v>
+      </c>
+      <c r="J38">
+        <v>394</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>505</v>
+      </c>
+      <c r="M38">
+        <v>506</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>602</v>
+      </c>
+      <c r="P38">
+        <v>604</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>634</v>
+      </c>
+      <c r="S38">
+        <v>635</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>653</v>
+      </c>
+      <c r="V38">
+        <v>655</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>669</v>
+      </c>
+      <c r="Y38">
+        <v>670</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>700</v>
+      </c>
+      <c r="AB38">
+        <v>701</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>738</v>
+      </c>
+      <c r="AE38">
+        <v>740</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>778</v>
+      </c>
+      <c r="AH38">
+        <v>779</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>835</v>
+      </c>
+      <c r="AK38">
+        <v>838</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>861</v>
+      </c>
+      <c r="AN38">
+        <v>862</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>919</v>
+      </c>
+      <c r="AQ38">
+        <v>920</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>1076</v>
+      </c>
+      <c r="AT38">
+        <v>1077</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>1138</v>
+      </c>
+      <c r="AW38">
+        <v>1139</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>1147</v>
+      </c>
+      <c r="AZ38">
+        <v>1148</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>1164</v>
+      </c>
+      <c r="BC38">
+        <v>1165</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>1185</v>
+      </c>
+      <c r="BF38">
+        <v>1187</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>1214</v>
+      </c>
+      <c r="BI38">
+        <v>1215</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>1226</v>
+      </c>
+      <c r="BL38">
+        <v>1227</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>1273</v>
+      </c>
+      <c r="BO38">
+        <v>1274</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>1320</v>
+      </c>
+      <c r="BR38">
+        <v>1321</v>
+      </c>
+      <c r="BS38">
+        <v>0</v>
+      </c>
+      <c r="BT38">
+        <v>1337</v>
+      </c>
+      <c r="BU38">
+        <v>1340</v>
+      </c>
+      <c r="BV38">
+        <v>0</v>
+      </c>
+      <c r="BW38">
+        <v>0</v>
+      </c>
+      <c r="BX38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>112</v>
+      </c>
+      <c r="G39">
+        <v>113</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>507</v>
+      </c>
+      <c r="J39">
+        <v>508</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>559</v>
+      </c>
+      <c r="M39">
+        <v>561</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>578</v>
+      </c>
+      <c r="P39">
+        <v>579</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>605</v>
+      </c>
+      <c r="S39">
+        <v>606</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>654</v>
+      </c>
+      <c r="V39">
+        <v>655</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>693</v>
+      </c>
+      <c r="Y39">
+        <v>694</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>741</v>
+      </c>
+      <c r="AB39">
+        <v>742</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>780</v>
+      </c>
+      <c r="AE39">
+        <v>781</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>835</v>
+      </c>
+      <c r="AH39">
+        <v>836</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>839</v>
+      </c>
+      <c r="AK39">
+        <v>840</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>862</v>
+      </c>
+      <c r="AN39">
+        <v>863</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>1039</v>
+      </c>
+      <c r="AQ39">
+        <v>1040</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>1045</v>
+      </c>
+      <c r="AT39">
+        <v>1046</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>1067</v>
+      </c>
+      <c r="AW39">
+        <v>1068</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>1123</v>
+      </c>
+      <c r="AZ39">
+        <v>1124</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>1140</v>
+      </c>
+      <c r="BC39">
+        <v>1141</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>1166</v>
+      </c>
+      <c r="BF39">
+        <v>1167</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>1187</v>
+      </c>
+      <c r="BI39">
+        <v>1189</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>1228</v>
+      </c>
+      <c r="BL39">
+        <v>1229</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>1339</v>
+      </c>
+      <c r="BO39">
+        <v>1341</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>1390</v>
+      </c>
+      <c r="BR39">
+        <v>1391</v>
+      </c>
+      <c r="BS39">
+        <v>0</v>
+      </c>
+      <c r="BT39">
+        <v>0</v>
+      </c>
+      <c r="BU39">
+        <v>0</v>
+      </c>
+      <c r="BV39">
+        <v>0</v>
+      </c>
+      <c r="BW39">
+        <v>0</v>
+      </c>
+      <c r="BX39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>392</v>
+      </c>
+      <c r="G40">
+        <v>393</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>502</v>
+      </c>
+      <c r="J40">
+        <v>503</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>555</v>
+      </c>
+      <c r="M40">
+        <v>558</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>582</v>
+      </c>
+      <c r="P40">
+        <v>583</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>597</v>
+      </c>
+      <c r="S40">
+        <v>598</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>612</v>
+      </c>
+      <c r="V40">
+        <v>613</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>738</v>
+      </c>
+      <c r="Y40">
+        <v>740</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>831</v>
+      </c>
+      <c r="AB40">
+        <v>832</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>834</v>
+      </c>
+      <c r="AE40">
+        <v>835</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>963</v>
+      </c>
+      <c r="AH40">
+        <v>964</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>1032</v>
+      </c>
+      <c r="AK40">
+        <v>1033</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>1037</v>
+      </c>
+      <c r="AN40">
+        <v>1038</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>1123</v>
+      </c>
+      <c r="AQ40">
+        <v>1124</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>1145</v>
+      </c>
+      <c r="AT40">
+        <v>1147</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>1184</v>
+      </c>
+      <c r="AW40">
+        <v>1186</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>1338</v>
+      </c>
+      <c r="AZ40">
+        <v>1339</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <v>0</v>
+      </c>
+      <c r="BR40">
+        <v>0</v>
+      </c>
+      <c r="BS40">
+        <v>0</v>
+      </c>
+      <c r="BT40">
+        <v>0</v>
+      </c>
+      <c r="BU40">
+        <v>0</v>
+      </c>
+      <c r="BV40">
+        <v>0</v>
+      </c>
+      <c r="BW40">
+        <v>0</v>
+      </c>
+      <c r="BX40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>152</v>
+      </c>
+      <c r="D41">
+        <v>154</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>390</v>
+      </c>
+      <c r="G41">
+        <v>391</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>478</v>
+      </c>
+      <c r="J41">
+        <v>479</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>503</v>
+      </c>
+      <c r="M41">
+        <v>504</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>555</v>
+      </c>
+      <c r="P41">
+        <v>557</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>574</v>
+      </c>
+      <c r="S41">
+        <v>575</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>581</v>
+      </c>
+      <c r="V41">
+        <v>582</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>600</v>
+      </c>
+      <c r="Y41">
+        <v>602</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>658</v>
+      </c>
+      <c r="AB41">
+        <v>659</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>707</v>
+      </c>
+      <c r="AE41">
+        <v>708</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>737</v>
+      </c>
+      <c r="AH41">
+        <v>738</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>741</v>
+      </c>
+      <c r="AK41">
+        <v>742</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>835</v>
+      </c>
+      <c r="AN41">
+        <v>836</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>934</v>
+      </c>
+      <c r="AQ41">
+        <v>935</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>1079</v>
+      </c>
+      <c r="AT41">
+        <v>1080</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>1136</v>
+      </c>
+      <c r="AW41">
+        <v>1137</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>1144</v>
+      </c>
+      <c r="AZ41">
+        <v>1146</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>1162</v>
+      </c>
+      <c r="BC41">
+        <v>1163</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>1183</v>
+      </c>
+      <c r="BF41">
+        <v>1185</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>1224</v>
+      </c>
+      <c r="BI41">
+        <v>1225</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>1335</v>
+      </c>
+      <c r="BL41">
+        <v>1338</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>0</v>
+      </c>
+      <c r="BR41">
+        <v>0</v>
+      </c>
+      <c r="BS41">
+        <v>0</v>
+      </c>
+      <c r="BT41">
+        <v>0</v>
+      </c>
+      <c r="BU41">
+        <v>0</v>
+      </c>
+      <c r="BV41">
+        <v>0</v>
+      </c>
+      <c r="BW41">
+        <v>0</v>
+      </c>
+      <c r="BX41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>109</v>
+      </c>
+      <c r="G42">
+        <v>110</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>392</v>
+      </c>
+      <c r="J42">
+        <v>393</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>495</v>
+      </c>
+      <c r="M42">
+        <v>496</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>504</v>
+      </c>
+      <c r="P42">
+        <v>505</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>738</v>
+      </c>
+      <c r="S42">
+        <v>739</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>832</v>
+      </c>
+      <c r="V42">
+        <v>834</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>836</v>
+      </c>
+      <c r="Y42">
+        <v>837</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>858</v>
+      </c>
+      <c r="AB42">
+        <v>859</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>918</v>
+      </c>
+      <c r="AE42">
+        <v>919</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>1042</v>
+      </c>
+      <c r="AH42">
+        <v>1043</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>1137</v>
+      </c>
+      <c r="AK42">
+        <v>1139</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>1184</v>
+      </c>
+      <c r="AN42">
+        <v>1186</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>1217</v>
+      </c>
+      <c r="AQ42">
+        <v>1218</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>1226</v>
+      </c>
+      <c r="AT42">
+        <v>1227</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>1254</v>
+      </c>
+      <c r="AW42">
+        <v>1255</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>1336</v>
+      </c>
+      <c r="AZ42">
+        <v>1339</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <v>0</v>
+      </c>
+      <c r="BR42">
+        <v>0</v>
+      </c>
+      <c r="BS42">
+        <v>0</v>
+      </c>
+      <c r="BT42">
+        <v>0</v>
+      </c>
+      <c r="BU42">
+        <v>0</v>
+      </c>
+      <c r="BV42">
+        <v>0</v>
+      </c>
+      <c r="BW42">
+        <v>0</v>
+      </c>
+      <c r="BX42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>58</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>109</v>
+      </c>
+      <c r="G43">
+        <v>111</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>155</v>
+      </c>
+      <c r="J43">
+        <v>156</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>443</v>
+      </c>
+      <c r="M43">
+        <v>444</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>505</v>
+      </c>
+      <c r="P43">
+        <v>506</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>537</v>
+      </c>
+      <c r="S43">
+        <v>538</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>556</v>
+      </c>
+      <c r="V43">
+        <v>557</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>603</v>
+      </c>
+      <c r="Y43">
+        <v>604</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>634</v>
+      </c>
+      <c r="AB43">
+        <v>635</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>713</v>
+      </c>
+      <c r="AE43">
+        <v>714</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>737</v>
+      </c>
+      <c r="AH43">
+        <v>739</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>776</v>
+      </c>
+      <c r="AK43">
+        <v>778</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>860</v>
+      </c>
+      <c r="AN43">
+        <v>861</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>900</v>
+      </c>
+      <c r="AQ43">
+        <v>901</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>1091</v>
+      </c>
+      <c r="AT43">
+        <v>1092</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>1148</v>
+      </c>
+      <c r="AW43">
+        <v>1149</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>1184</v>
+      </c>
+      <c r="AZ43">
+        <v>1185</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>1213</v>
+      </c>
+      <c r="BC43">
+        <v>1215</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
+      <c r="BK43">
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
+      <c r="BQ43">
+        <v>0</v>
+      </c>
+      <c r="BR43">
+        <v>0</v>
+      </c>
+      <c r="BS43">
+        <v>0</v>
+      </c>
+      <c r="BT43">
+        <v>0</v>
+      </c>
+      <c r="BU43">
+        <v>0</v>
+      </c>
+      <c r="BV43">
+        <v>0</v>
+      </c>
+      <c r="BW43">
+        <v>0</v>
+      </c>
+      <c r="BX43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>110</v>
+      </c>
+      <c r="D44">
+        <v>112</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>276</v>
+      </c>
+      <c r="G44">
+        <v>277</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>444</v>
+      </c>
+      <c r="J44">
+        <v>445</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>497</v>
+      </c>
+      <c r="M44">
+        <v>498</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>558</v>
+      </c>
+      <c r="P44">
+        <v>560</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>603</v>
+      </c>
+      <c r="S44">
+        <v>604</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>627</v>
+      </c>
+      <c r="V44">
+        <v>628</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>762</v>
+      </c>
+      <c r="Y44">
+        <v>763</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>779</v>
+      </c>
+      <c r="AB44">
+        <v>780</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>834</v>
+      </c>
+      <c r="AE44">
+        <v>836</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>838</v>
+      </c>
+      <c r="AH44">
+        <v>839</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>1066</v>
+      </c>
+      <c r="AK44">
+        <v>1067</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>1125</v>
+      </c>
+      <c r="AN44">
+        <v>1126</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>1138</v>
+      </c>
+      <c r="AQ44">
+        <v>1140</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>1165</v>
+      </c>
+      <c r="AT44">
+        <v>1166</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>1185</v>
+      </c>
+      <c r="AW44">
+        <v>1188</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>1216</v>
+      </c>
+      <c r="AZ44">
+        <v>1217</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>1263</v>
+      </c>
+      <c r="BC44">
+        <v>1264</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>1338</v>
+      </c>
+      <c r="BF44">
+        <v>1340</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>1389</v>
+      </c>
+      <c r="BI44">
+        <v>1390</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
+      <c r="BQ44">
+        <v>0</v>
+      </c>
+      <c r="BR44">
+        <v>0</v>
+      </c>
+      <c r="BS44">
+        <v>0</v>
+      </c>
+      <c r="BT44">
+        <v>0</v>
+      </c>
+      <c r="BU44">
+        <v>0</v>
+      </c>
+      <c r="BV44">
+        <v>0</v>
+      </c>
+      <c r="BW44">
+        <v>0</v>
+      </c>
+      <c r="BX44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>109</v>
+      </c>
+      <c r="G45">
+        <v>110</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>504</v>
+      </c>
+      <c r="J45">
+        <v>505</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>556</v>
+      </c>
+      <c r="M45">
+        <v>558</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>593</v>
+      </c>
+      <c r="P45">
+        <v>594</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>601</v>
+      </c>
+      <c r="S45">
+        <v>602</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>737</v>
+      </c>
+      <c r="V45">
+        <v>739</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>777</v>
+      </c>
+      <c r="Y45">
+        <v>778</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>782</v>
+      </c>
+      <c r="AB45">
+        <v>783</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>832</v>
+      </c>
+      <c r="AE45">
+        <v>833</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>836</v>
+      </c>
+      <c r="AH45">
+        <v>837</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>1036</v>
+      </c>
+      <c r="AK45">
+        <v>1037</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>1091</v>
+      </c>
+      <c r="AN45">
+        <v>1092</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>1137</v>
+      </c>
+      <c r="AQ45">
+        <v>1138</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>1183</v>
+      </c>
+      <c r="AT45">
+        <v>1186</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>1212</v>
+      </c>
+      <c r="AW45">
+        <v>1213</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>1225</v>
+      </c>
+      <c r="AZ45">
+        <v>1226</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>1271</v>
+      </c>
+      <c r="BC45">
+        <v>1273</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>1336</v>
+      </c>
+      <c r="BF45">
+        <v>1338</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>0</v>
+      </c>
+      <c r="BL45">
+        <v>0</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>0</v>
+      </c>
+      <c r="BP45">
+        <v>0</v>
+      </c>
+      <c r="BQ45">
+        <v>0</v>
+      </c>
+      <c r="BR45">
+        <v>0</v>
+      </c>
+      <c r="BS45">
+        <v>0</v>
+      </c>
+      <c r="BT45">
+        <v>0</v>
+      </c>
+      <c r="BU45">
+        <v>0</v>
+      </c>
+      <c r="BV45">
+        <v>0</v>
+      </c>
+      <c r="BW45">
+        <v>0</v>
+      </c>
+      <c r="BX45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>109</v>
+      </c>
+      <c r="D46">
+        <v>110</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>154</v>
+      </c>
+      <c r="G46">
+        <v>155</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>391</v>
+      </c>
+      <c r="J46">
+        <v>392</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>478</v>
+      </c>
+      <c r="M46">
+        <v>479</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>504</v>
+      </c>
+      <c r="P46">
+        <v>505</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>556</v>
+      </c>
+      <c r="S46">
+        <v>558</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>582</v>
+      </c>
+      <c r="V46">
+        <v>583</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>591</v>
+      </c>
+      <c r="Y46">
+        <v>592</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>601</v>
+      </c>
+      <c r="AB46">
+        <v>603</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>643</v>
+      </c>
+      <c r="AE46">
+        <v>644</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>651</v>
+      </c>
+      <c r="AH46">
+        <v>652</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>654</v>
+      </c>
+      <c r="AK46">
+        <v>655</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>738</v>
+      </c>
+      <c r="AN46">
+        <v>739</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>777</v>
+      </c>
+      <c r="AQ46">
+        <v>778</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>832</v>
+      </c>
+      <c r="AT46">
+        <v>833</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>836</v>
+      </c>
+      <c r="AW46">
+        <v>837</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>1042</v>
+      </c>
+      <c r="AZ46">
+        <v>1043</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>1144</v>
+      </c>
+      <c r="BC46">
+        <v>1146</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>1184</v>
+      </c>
+      <c r="BF46">
+        <v>1186</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>1213</v>
+      </c>
+      <c r="BI46">
+        <v>1214</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>1225</v>
+      </c>
+      <c r="BL46">
+        <v>1226</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>1271</v>
+      </c>
+      <c r="BO46">
+        <v>1273</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>1318</v>
+      </c>
+      <c r="BR46">
+        <v>1319</v>
+      </c>
+      <c r="BS46">
+        <v>0</v>
+      </c>
+      <c r="BT46">
+        <v>1335</v>
+      </c>
+      <c r="BU46">
+        <v>1338</v>
+      </c>
+      <c r="BV46">
+        <v>0</v>
+      </c>
+      <c r="BW46">
+        <v>1427</v>
+      </c>
+      <c r="BX46">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="47" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>154</v>
+      </c>
+      <c r="D47">
+        <v>155</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>392</v>
+      </c>
+      <c r="G47">
+        <v>393</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>468</v>
+      </c>
+      <c r="J47">
+        <v>469</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>479</v>
+      </c>
+      <c r="M47">
+        <v>480</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>504</v>
+      </c>
+      <c r="P47">
+        <v>505</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>571</v>
+      </c>
+      <c r="S47">
+        <v>572</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>602</v>
+      </c>
+      <c r="V47">
+        <v>603</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>654</v>
+      </c>
+      <c r="Y47">
+        <v>655</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>738</v>
+      </c>
+      <c r="AB47">
+        <v>739</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>777</v>
+      </c>
+      <c r="AE47">
+        <v>778</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>836</v>
+      </c>
+      <c r="AH47">
+        <v>837</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>909</v>
+      </c>
+      <c r="AK47">
+        <v>910</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>1137</v>
+      </c>
+      <c r="AN47">
+        <v>1138</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>1163</v>
+      </c>
+      <c r="AQ47">
+        <v>1164</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>1184</v>
+      </c>
+      <c r="AT47">
+        <v>1186</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>1188</v>
+      </c>
+      <c r="AW47">
+        <v>1189</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>1217</v>
+      </c>
+      <c r="AZ47">
+        <v>1218</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>1319</v>
+      </c>
+      <c r="BC47">
+        <v>1320</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>1336</v>
+      </c>
+      <c r="BF47">
+        <v>1338</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>1428</v>
+      </c>
+      <c r="BI47">
+        <v>1429</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+      <c r="BQ47">
+        <v>0</v>
+      </c>
+      <c r="BR47">
+        <v>0</v>
+      </c>
+      <c r="BS47">
+        <v>0</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>0</v>
+      </c>
+      <c r="BV47">
+        <v>0</v>
+      </c>
+      <c r="BW47">
+        <v>0</v>
+      </c>
+      <c r="BX47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="8">
+        <v>10</v>
+      </c>
+      <c r="D50" s="8">
+        <v>9</v>
+      </c>
+      <c r="E50" s="8">
+        <v>7</v>
+      </c>
+      <c r="F50" s="8">
+        <v>11</v>
+      </c>
+      <c r="G50" s="8">
+        <v>13</v>
+      </c>
+      <c r="H50" s="8">
+        <v>12</v>
+      </c>
+      <c r="I50" s="8">
+        <v>8</v>
+      </c>
+      <c r="J50" s="8">
+        <v>13</v>
+      </c>
+      <c r="K50" s="8">
+        <v>9</v>
+      </c>
+      <c r="L50" s="8">
+        <v>7</v>
+      </c>
+      <c r="M50" s="8">
+        <v>5</v>
+      </c>
+      <c r="N50" s="8">
+        <v>12</v>
+      </c>
+      <c r="O50" s="8">
+        <v>14</v>
+      </c>
+      <c r="P50" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>111</v>
+      </c>
+      <c r="D52">
+        <v>112</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>394</v>
+      </c>
+      <c r="G52">
+        <v>395</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>577</v>
+      </c>
+      <c r="J52" s="9">
+        <v>578</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>613</v>
+      </c>
+      <c r="M52" s="9">
+        <v>614</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9">
+        <v>636</v>
+      </c>
+      <c r="P52" s="9">
+        <v>637</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>740</v>
+      </c>
+      <c r="S52">
+        <v>741</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>876</v>
+      </c>
+      <c r="V52">
+        <v>877</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1139</v>
+      </c>
+      <c r="Y52">
+        <v>1140</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>1165</v>
+      </c>
+      <c r="AB52">
+        <v>1166</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>1186</v>
+      </c>
+      <c r="AE52">
+        <v>1188</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>524</v>
+      </c>
+      <c r="G53">
+        <v>525</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>553</v>
+      </c>
+      <c r="J53">
+        <v>554</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>584</v>
+      </c>
+      <c r="M53">
+        <v>585</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>607</v>
+      </c>
+      <c r="P53">
+        <v>608</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>778</v>
+      </c>
+      <c r="S53">
+        <v>779</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>916</v>
+      </c>
+      <c r="V53">
+        <v>917</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1029</v>
+      </c>
+      <c r="Y53">
+        <v>1030</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>1186</v>
+      </c>
+      <c r="AB53">
+        <v>1188</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>108</v>
+      </c>
+      <c r="D54">
+        <v>109</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>601</v>
+      </c>
+      <c r="G54">
+        <v>602</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>652</v>
+      </c>
+      <c r="J54">
+        <v>653</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>737</v>
+      </c>
+      <c r="M54">
+        <v>738</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>859</v>
+      </c>
+      <c r="P54">
+        <v>860</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1145</v>
+      </c>
+      <c r="S54">
+        <v>1146</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>1162</v>
+      </c>
+      <c r="V54">
+        <v>1163</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>393</v>
+      </c>
+      <c r="D55">
+        <v>394</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>480</v>
+      </c>
+      <c r="G55">
+        <v>481</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>505</v>
+      </c>
+      <c r="J55">
+        <v>506</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>655</v>
+      </c>
+      <c r="M55">
+        <v>656</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>739</v>
+      </c>
+      <c r="P55">
+        <v>740</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>833</v>
+      </c>
+      <c r="S55">
+        <v>834</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>837</v>
+      </c>
+      <c r="V55">
+        <v>838</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>1164</v>
+      </c>
+      <c r="Y55">
+        <v>1165</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>1185</v>
+      </c>
+      <c r="AB55">
+        <v>1187</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>1226</v>
+      </c>
+      <c r="AE55">
+        <v>1227</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>1337</v>
+      </c>
+      <c r="AH55">
+        <v>1339</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>393</v>
+      </c>
+      <c r="D56">
+        <v>394</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>505</v>
+      </c>
+      <c r="G56">
+        <v>506</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>603</v>
+      </c>
+      <c r="J56">
+        <v>604</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>654</v>
+      </c>
+      <c r="M56">
+        <v>655</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>669</v>
+      </c>
+      <c r="P56">
+        <v>670</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>739</v>
+      </c>
+      <c r="S56">
+        <v>740</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>778</v>
+      </c>
+      <c r="V56">
+        <v>779</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1138</v>
+      </c>
+      <c r="Y56">
+        <v>1139</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>1147</v>
+      </c>
+      <c r="AB56">
+        <v>1148</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>1164</v>
+      </c>
+      <c r="AE56">
+        <v>1165</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>1185</v>
+      </c>
+      <c r="AH56">
+        <v>1187</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>1214</v>
+      </c>
+      <c r="AK56">
+        <v>1215</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>1273</v>
+      </c>
+      <c r="AN56">
+        <v>1274</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>112</v>
+      </c>
+      <c r="D57">
+        <v>113</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>507</v>
+      </c>
+      <c r="G57">
+        <v>508</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>559</v>
+      </c>
+      <c r="J57">
+        <v>561</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>741</v>
+      </c>
+      <c r="M57">
+        <v>742</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>780</v>
+      </c>
+      <c r="P57">
+        <v>781</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>835</v>
+      </c>
+      <c r="S57">
+        <v>836</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>1123</v>
+      </c>
+      <c r="V57">
+        <v>1124</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1140</v>
+      </c>
+      <c r="Y57">
+        <v>1141</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>1166</v>
+      </c>
+      <c r="AB57">
+        <v>1167</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>1187</v>
+      </c>
+      <c r="AE57">
+        <v>1189</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>1228</v>
+      </c>
+      <c r="AH57">
+        <v>1229</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>1339</v>
+      </c>
+      <c r="AK57">
+        <v>1341</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>392</v>
+      </c>
+      <c r="G58">
+        <v>393</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>555</v>
+      </c>
+      <c r="J58">
+        <v>558</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>738</v>
+      </c>
+      <c r="M58">
+        <v>740</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>1032</v>
+      </c>
+      <c r="P58">
+        <v>1033</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>1145</v>
+      </c>
+      <c r="S58">
+        <v>1147</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>1184</v>
+      </c>
+      <c r="V58">
+        <v>1186</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1338</v>
+      </c>
+      <c r="Y58">
+        <v>1339</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>478</v>
+      </c>
+      <c r="D59">
+        <v>479</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>503</v>
+      </c>
+      <c r="G59">
+        <v>504</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>556</v>
+      </c>
+      <c r="J59">
+        <v>557</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>574</v>
+      </c>
+      <c r="M59">
+        <v>575</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>600</v>
+      </c>
+      <c r="P59">
+        <v>602</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>737</v>
+      </c>
+      <c r="S59">
+        <v>738</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>741</v>
+      </c>
+      <c r="V59">
+        <v>742</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>835</v>
+      </c>
+      <c r="Y59">
+        <v>836</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>1136</v>
+      </c>
+      <c r="AB59">
+        <v>1137</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>1162</v>
+      </c>
+      <c r="AE59">
+        <v>1163</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>1183</v>
+      </c>
+      <c r="AH59">
+        <v>1185</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>1224</v>
+      </c>
+      <c r="AK59">
+        <v>1225</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>1335</v>
+      </c>
+      <c r="AN59">
+        <v>1337</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>392</v>
+      </c>
+      <c r="D60">
+        <v>393</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>504</v>
+      </c>
+      <c r="G60">
+        <v>505</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>738</v>
+      </c>
+      <c r="J60">
+        <v>739</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>836</v>
+      </c>
+      <c r="M60">
+        <v>837</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>918</v>
+      </c>
+      <c r="P60">
+        <v>919</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1137</v>
+      </c>
+      <c r="S60">
+        <v>1139</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>1184</v>
+      </c>
+      <c r="V60">
+        <v>1186</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1217</v>
+      </c>
+      <c r="Y60">
+        <v>1218</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>1336</v>
+      </c>
+      <c r="AB60">
+        <v>1338</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>505</v>
+      </c>
+      <c r="D61">
+        <v>506</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>556</v>
+      </c>
+      <c r="G61">
+        <v>557</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>603</v>
+      </c>
+      <c r="J61">
+        <v>604</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>738</v>
+      </c>
+      <c r="M61">
+        <v>739</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1091</v>
+      </c>
+      <c r="P61">
+        <v>1092</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1184</v>
+      </c>
+      <c r="S61">
+        <v>1185</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1214</v>
+      </c>
+      <c r="V61">
+        <v>1215</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>111</v>
+      </c>
+      <c r="D62">
+        <v>112</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>558</v>
+      </c>
+      <c r="G62">
+        <v>560</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>603</v>
+      </c>
+      <c r="J62">
+        <v>604</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1185</v>
+      </c>
+      <c r="M62">
+        <v>1188</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1338</v>
+      </c>
+      <c r="P62">
+        <v>1339</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>504</v>
+      </c>
+      <c r="D63">
+        <v>505</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>556</v>
+      </c>
+      <c r="G63">
+        <v>557</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>593</v>
+      </c>
+      <c r="J63">
+        <v>594</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>601</v>
+      </c>
+      <c r="M63">
+        <v>602</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>738</v>
+      </c>
+      <c r="P63">
+        <v>739</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>777</v>
+      </c>
+      <c r="S63">
+        <v>778</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>832</v>
+      </c>
+      <c r="V63">
+        <v>833</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1091</v>
+      </c>
+      <c r="Y63">
+        <v>1092</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>1137</v>
+      </c>
+      <c r="AB63">
+        <v>1138</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>1184</v>
+      </c>
+      <c r="AE63">
+        <v>1186</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>1225</v>
+      </c>
+      <c r="AH63">
+        <v>1226</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>1336</v>
+      </c>
+      <c r="AK63">
+        <v>1338</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>391</v>
+      </c>
+      <c r="D64">
+        <v>392</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>504</v>
+      </c>
+      <c r="G64">
+        <v>505</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>556</v>
+      </c>
+      <c r="J64">
+        <v>557</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>591</v>
+      </c>
+      <c r="M64">
+        <v>592</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>601</v>
+      </c>
+      <c r="P64">
+        <v>603</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>654</v>
+      </c>
+      <c r="S64">
+        <v>655</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>738</v>
+      </c>
+      <c r="V64">
+        <v>739</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>777</v>
+      </c>
+      <c r="Y64">
+        <v>778</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>832</v>
+      </c>
+      <c r="AB64">
+        <v>833</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>836</v>
+      </c>
+      <c r="AE64">
+        <v>837</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>1042</v>
+      </c>
+      <c r="AH64">
+        <v>1043</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>1184</v>
+      </c>
+      <c r="AK64">
+        <v>1186</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>1225</v>
+      </c>
+      <c r="AN64">
+        <v>1226</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>1336</v>
+      </c>
+      <c r="AQ64">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="65" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>392</v>
+      </c>
+      <c r="D65">
+        <v>393</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>479</v>
+      </c>
+      <c r="G65">
+        <v>480</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>504</v>
+      </c>
+      <c r="J65">
+        <v>505</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>602</v>
+      </c>
+      <c r="M65">
+        <v>603</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>738</v>
+      </c>
+      <c r="P65">
+        <v>739</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>777</v>
+      </c>
+      <c r="S65">
+        <v>778</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>836</v>
+      </c>
+      <c r="V65">
+        <v>837</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>1163</v>
+      </c>
+      <c r="Y65">
+        <v>1164</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>1184</v>
+      </c>
+      <c r="AB65">
+        <v>1186</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>1336</v>
+      </c>
+      <c r="AE65">
+        <v>1338</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>1428</v>
+      </c>
+      <c r="AH65">
+        <v>1429</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SCADA-Data/爆管数据.xlsx
+++ b/SCADA-Data/爆管数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="压力SPC" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="插值" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>压力SPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +477,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,8 +539,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -541,11 +554,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -561,6 +626,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -40162,8 +40240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82:L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42237,4 +42315,1275 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:P128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="15">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="15">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5" s="15">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>-1.3188235294117701</v>
+      </c>
+      <c r="C7">
+        <v>-1.0363636363636299</v>
+      </c>
+      <c r="D7">
+        <v>-1.53428571428572</v>
+      </c>
+      <c r="E7">
+        <v>-1.48</v>
+      </c>
+      <c r="F7">
+        <v>-1.64476190476191</v>
+      </c>
+      <c r="G7" s="15">
+        <v>-0.59111111111110903</v>
+      </c>
+      <c r="H7">
+        <v>-1.83692307692309</v>
+      </c>
+      <c r="I7">
+        <v>-1.66476190476191</v>
+      </c>
+      <c r="J7" s="15">
+        <v>-2.4741176470588302</v>
+      </c>
+      <c r="K7">
+        <v>-2.0085714285714298</v>
+      </c>
+      <c r="L7">
+        <v>-1.25473684210526</v>
+      </c>
+      <c r="M7" s="15">
+        <v>-1.8942857142857199</v>
+      </c>
+      <c r="N7">
+        <v>-2.2380952380952301</v>
+      </c>
+      <c r="O7">
+        <v>-2.03142857142858</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f>G7*N20+J7*N23+N26*M7</f>
+        <v>-285242.73833240021</v>
+      </c>
+      <c r="D12">
+        <f>G7*O20+J7*O23+O26*M7</f>
+        <v>-97961.497677124396</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>G7+J7+M7</f>
+        <v>-4.959514472455659</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>58308.47</v>
+      </c>
+      <c r="O15">
+        <v>19057.599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>-1.8133333333333299</v>
+      </c>
+      <c r="I16">
+        <v>-1.8564705882353001</v>
+      </c>
+      <c r="L16">
+        <v>-1.4009523809523901</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>59674.42</v>
+      </c>
+      <c r="O16">
+        <v>18223.87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>B12/B13</f>
+        <v>57514.246589377297</v>
+      </c>
+      <c r="D17">
+        <f>D12/B13</f>
+        <v>19752.23547006198</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>59366.8</v>
+      </c>
+      <c r="O17">
+        <v>18520.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>59120.5</v>
+      </c>
+      <c r="O18">
+        <v>19859.07</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f>F16*N20+N23*I16+L16*N26</f>
+        <v>-292546.70352324995</v>
+      </c>
+      <c r="H19">
+        <f>F16*O20+I16*O23+O26*L16</f>
+        <v>-100076.57548627474</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>57811.39</v>
+      </c>
+      <c r="O19">
+        <v>18679.86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>F16+I16+L16</f>
+        <v>-5.0707563025210201</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>58177.24</v>
+      </c>
+      <c r="O20">
+        <v>19687.04</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>58335.18</v>
+      </c>
+      <c r="O21">
+        <v>18604.599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f>F19/F20</f>
+        <v>57692.91325986322</v>
+      </c>
+      <c r="H22">
+        <f>H19/F20</f>
+        <v>19736.025459657729</v>
+      </c>
+      <c r="I22">
+        <v>-1.0964705882352901</v>
+      </c>
+      <c r="J22">
+        <v>-0.86857142857142999</v>
+      </c>
+      <c r="L22">
+        <v>-3.3415384615384598</v>
+      </c>
+      <c r="M22">
+        <v>8</v>
+      </c>
+      <c r="N22">
+        <v>59477.120000000003</v>
+      </c>
+      <c r="O22">
+        <v>19861.61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>57273.95</v>
+      </c>
+      <c r="O23">
+        <v>20034.060000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>59135.91</v>
+      </c>
+      <c r="O24">
+        <v>19607.68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f>I22*N15+N19*J22+L22*N21</f>
+        <v>-309076.09163076896</v>
+      </c>
+      <c r="J25">
+        <f>I22*O15+J22*O19+O21*L22</f>
+        <v>-99288.877029605588</v>
+      </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>59154.77</v>
+      </c>
+      <c r="O25">
+        <v>20246.66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f>I22+J22+L22</f>
+        <v>-5.3065804783451798</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <v>57621.21</v>
+      </c>
+      <c r="O26">
+        <v>19404.490000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>13</v>
+      </c>
+      <c r="N27">
+        <v>59120.34</v>
+      </c>
+      <c r="O27">
+        <v>19392.04</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>14</v>
+      </c>
+      <c r="N28">
+        <v>58728.76</v>
+      </c>
+      <c r="O28">
+        <v>20088.29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <f>I25/I26</f>
+        <v>58243.928061023624</v>
+      </c>
+      <c r="J29">
+        <f>J25/I26</f>
+        <v>18710.519407889606</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>-0.95529411764705996</v>
+      </c>
+      <c r="E30">
+        <v>-0.78380952380951996</v>
+      </c>
+      <c r="G30">
+        <v>-5.2569230769230799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f>D30*N15+N19*E30+G30*N21</f>
+        <v>-407678.4104051282</v>
+      </c>
+      <c r="F33">
+        <f>D30*O15+O19*E30+G30*O21</f>
+        <v>-130650.01642482224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f>D30+E30+G30</f>
+        <v>-6.9960267183796603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f>D33/D34</f>
+        <v>58272.849263724653</v>
+      </c>
+      <c r="F36">
+        <f>F33/D34</f>
+        <v>18674.888144950066</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>11</v>
+      </c>
+      <c r="L38">
+        <v>12</v>
+      </c>
+      <c r="M38">
+        <v>13</v>
+      </c>
+      <c r="N38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>-0.61523809523809103</v>
+      </c>
+      <c r="I39">
+        <v>-1.1576470588235399</v>
+      </c>
+      <c r="J39">
+        <v>-0.87523809523810103</v>
+      </c>
+      <c r="K39">
+        <v>-0.83473684210526</v>
+      </c>
+      <c r="L39">
+        <v>-0.65619047619048199</v>
+      </c>
+      <c r="M39">
+        <v>-1.1152380952381</v>
+      </c>
+      <c r="N39">
+        <v>-1.0447619047619201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>13</v>
+      </c>
+      <c r="H46">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>-1.14761904761905</v>
+      </c>
+      <c r="B47">
+        <v>-0.90190476190476998</v>
+      </c>
+      <c r="D47">
+        <v>-1.1495238095238101</v>
+      </c>
+      <c r="E47">
+        <v>-1.51157894736842</v>
+      </c>
+      <c r="G47">
+        <v>-1.2733333333333401</v>
+      </c>
+      <c r="H47">
+        <v>-1.1714285714285799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>58308.47</v>
+      </c>
+      <c r="L48">
+        <v>19057.599999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>59674.42</v>
+      </c>
+      <c r="L49">
+        <v>18223.87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>59366.8</v>
+      </c>
+      <c r="L50">
+        <v>18520.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>59120.5</v>
+      </c>
+      <c r="L51">
+        <v>19859.07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f>A47*K51+K55*B47+D47*K57+K58*E47+G47*K60+K61*H47</f>
+        <v>-422962.19819699397</v>
+      </c>
+      <c r="C52">
+        <f>A47*L51+L55*B47+D47*L57+L58*E47+G47*L60+L61*H47</f>
+        <v>-142072.37544862207</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>57811.39</v>
+      </c>
+      <c r="L52">
+        <v>18679.86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f>A47+B47+D47+E47+G47+H47</f>
+        <v>-7.1553884711779698</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <v>58177.24</v>
+      </c>
+      <c r="L53">
+        <v>19687.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>7</v>
+      </c>
+      <c r="K54">
+        <v>58335.18</v>
+      </c>
+      <c r="L54">
+        <v>18604.599999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="K55">
+        <v>59477.120000000003</v>
+      </c>
+      <c r="L55">
+        <v>19861.61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f>A52/A53</f>
+        <v>59111.004231383537</v>
+      </c>
+      <c r="C56">
+        <f>C52/A53</f>
+        <v>19855.298705429075</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>57273.95</v>
+      </c>
+      <c r="L56">
+        <v>20034.060000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <v>59135.91</v>
+      </c>
+      <c r="L57">
+        <v>19607.68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>13</v>
+      </c>
+      <c r="H58">
+        <v>14</v>
+      </c>
+      <c r="J58">
+        <v>11</v>
+      </c>
+      <c r="K58">
+        <v>59154.77</v>
+      </c>
+      <c r="L58">
+        <v>20246.66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>-0.99809523809524803</v>
+      </c>
+      <c r="B59">
+        <v>-0.66666666666666496</v>
+      </c>
+      <c r="D59">
+        <v>-1.13904761904762</v>
+      </c>
+      <c r="E59">
+        <v>-1.36</v>
+      </c>
+      <c r="G59">
+        <v>-1.11904761904761</v>
+      </c>
+      <c r="H59">
+        <v>-1.0095238095238199</v>
+      </c>
+      <c r="J59">
+        <v>12</v>
+      </c>
+      <c r="K59">
+        <v>57621.21</v>
+      </c>
+      <c r="L59">
+        <v>19404.490000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>13</v>
+      </c>
+      <c r="K60">
+        <v>59120.34</v>
+      </c>
+      <c r="L60">
+        <v>19392.04</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>14</v>
+      </c>
+      <c r="K61">
+        <v>58728.76</v>
+      </c>
+      <c r="L61">
+        <v>20088.29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f>K51*A59+B59*K55+K57*D59+E59*K58+K60*G59+H59*K61</f>
+        <v>-371914.96478095301</v>
+      </c>
+      <c r="C62">
+        <f>A59*L51+L55*B59+D59*L57+L58*E59+G59*L60+L61*H59</f>
+        <v>-124912.07859047641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f>A59+B59+D59+E59+G59+H59</f>
+        <v>-6.2923809523809631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f>A62/A63</f>
+        <v>59105.602091720903</v>
+      </c>
+      <c r="C66">
+        <f>C62/A63</f>
+        <v>19851.321707280156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>11</v>
+      </c>
+      <c r="M70">
+        <v>13</v>
+      </c>
+      <c r="N70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>-1.05142857142857</v>
+      </c>
+      <c r="H71">
+        <v>-0.96476190476190704</v>
+      </c>
+      <c r="J71">
+        <v>-1.11619047619048</v>
+      </c>
+      <c r="K71">
+        <v>-1.31684210526316</v>
+      </c>
+      <c r="M71">
+        <v>-1.3361904761904699</v>
+      </c>
+      <c r="N71">
+        <v>-1.1047619047619199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <f>G71*K51+K55*H71+J71*K57+K58*K71+M71*K60+K61*N71</f>
+        <v>-407324.00586315885</v>
+      </c>
+      <c r="I74">
+        <f>G71*L51+L55*H71+J71*L57+K71*L58+L60*M71+N71*L61</f>
+        <v>-136693.91503609053</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <f>G71+H71+J71+K71+M71+N71</f>
+        <v>-6.8901754385965077</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <f>G74/G75</f>
+        <v>59116.637811783876</v>
+      </c>
+      <c r="I77">
+        <f>I74/G75</f>
+        <v>19838.960016950507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <v>11</v>
+      </c>
+      <c r="M80">
+        <v>13</v>
+      </c>
+      <c r="N80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>-0.67333333333333101</v>
+      </c>
+      <c r="H81">
+        <v>-0.46333333333332699</v>
+      </c>
+      <c r="J81">
+        <v>-0.73904761904762295</v>
+      </c>
+      <c r="K81">
+        <v>-1.10736842105263</v>
+      </c>
+      <c r="M81">
+        <v>-0.85619047619047695</v>
+      </c>
+      <c r="N81">
+        <v>-0.79142857142857104</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>58308.47</v>
+      </c>
+      <c r="D82">
+        <v>19057.599999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>59674.42</v>
+      </c>
+      <c r="D83">
+        <v>18223.87</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>59366.8</v>
+      </c>
+      <c r="D84">
+        <v>18520.25</v>
+      </c>
+      <c r="G84">
+        <f>G81*C85+C89*H81+J81*C91+C92*K81+M81*C94+C95*N81</f>
+        <v>-273673.80402405979</v>
+      </c>
+      <c r="I84">
+        <f>G81*D85+D89*H81+J81*D91+D92*K81+M81*D94+D95*N81</f>
+        <v>-91987.567520551253</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>59120.5</v>
+      </c>
+      <c r="D85">
+        <v>19859.07</v>
+      </c>
+      <c r="G85">
+        <f>G81+H81+J81+K81+M81+N81</f>
+        <v>-4.6307017543859592</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>57811.39</v>
+      </c>
+      <c r="D86">
+        <v>18679.86</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>58177.24</v>
+      </c>
+      <c r="D87">
+        <v>19687.04</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>58335.18</v>
+      </c>
+      <c r="D88">
+        <v>18604.599999999999</v>
+      </c>
+      <c r="G88">
+        <f>G84/G85</f>
+        <v>59099.855386896867</v>
+      </c>
+      <c r="I88">
+        <f>I84/G85</f>
+        <v>19864.714334803666</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>59477.120000000003</v>
+      </c>
+      <c r="D89">
+        <v>19861.61</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>57273.95</v>
+      </c>
+      <c r="D90">
+        <v>20034.060000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>59135.91</v>
+      </c>
+      <c r="D91">
+        <v>19607.68</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="J91">
+        <v>10</v>
+      </c>
+      <c r="K91">
+        <v>11</v>
+      </c>
+      <c r="M91">
+        <v>13</v>
+      </c>
+      <c r="N91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>59154.77</v>
+      </c>
+      <c r="D92">
+        <v>20246.66</v>
+      </c>
+      <c r="G92">
+        <v>-0.60952380952380403</v>
+      </c>
+      <c r="H92">
+        <v>-0.34666666666666202</v>
+      </c>
+      <c r="J92">
+        <v>-0.78285714285714603</v>
+      </c>
+      <c r="K92">
+        <v>-0.925263157894746</v>
+      </c>
+      <c r="M92">
+        <v>-0.64761904761904099</v>
+      </c>
+      <c r="N92">
+        <v>-0.85333333333332295</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>57621.21</v>
+      </c>
+      <c r="D93">
+        <v>19404.490000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>59120.34</v>
+      </c>
+      <c r="D94">
+        <v>19392.04</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>58728.76</v>
+      </c>
+      <c r="D95">
+        <v>20088.29</v>
+      </c>
+      <c r="G95">
+        <f>G92*C85+C89*H92+J92*C91+C92*K92+M92*C94+C95*N92</f>
+        <v>-246085.45297092642</v>
+      </c>
+      <c r="I95">
+        <f>G92*D85+D89*H92+J92*D91+D92*K92+M92*D94+D95*N92</f>
+        <v>-82774.09698746838</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <f>G92+H92+J92+K92+M92+N92</f>
+        <v>-4.1652631578947217</v>
+      </c>
+    </row>
+    <row r="98" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <f>G95/G96</f>
+        <v>59080.409482532457</v>
+      </c>
+      <c r="I98">
+        <f>I95/G96</f>
+        <v>19872.477164037213</v>
+      </c>
+    </row>
+    <row r="102" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102">
+        <v>8</v>
+      </c>
+      <c r="L102">
+        <v>10</v>
+      </c>
+      <c r="M102">
+        <v>11</v>
+      </c>
+      <c r="O102">
+        <v>13</v>
+      </c>
+      <c r="P102">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <v>-0.71428571428571197</v>
+      </c>
+      <c r="J103">
+        <v>-0.68857142857142695</v>
+      </c>
+      <c r="L103">
+        <v>-0.90476190476191398</v>
+      </c>
+      <c r="M103">
+        <v>-0.99894736842104404</v>
+      </c>
+      <c r="O103">
+        <v>-0.94285714285714495</v>
+      </c>
+      <c r="P103">
+        <v>-1.0685714285714301</v>
+      </c>
+    </row>
+    <row r="106" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <f>I103*C85+C89*J103+L103*C91+C92*M103+O103*C94+C95*P103</f>
+        <v>-314277.50427819556</v>
+      </c>
+      <c r="K106">
+        <f>I103*D85+D89*J103+L103*D91+D92*M103+O103*D94+D95*P103</f>
+        <v>-105576.51297393482</v>
+      </c>
+    </row>
+    <row r="108" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <f>I103+J103+L103+M103+O103+P103</f>
+        <v>-5.3179949874686727</v>
+      </c>
+    </row>
+    <row r="111" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <f>I106/I108</f>
+        <v>59096.991444850792</v>
+      </c>
+      <c r="K111">
+        <f>K106/I108</f>
+        <v>19852.691328727349</v>
+      </c>
+    </row>
+    <row r="120" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F121" s="16">
+        <v>58329.8</v>
+      </c>
+      <c r="G121" s="16">
+        <v>18605.8</v>
+      </c>
+      <c r="H121" s="18">
+        <v>58272.85</v>
+      </c>
+      <c r="I121" s="18">
+        <v>18674.89</v>
+      </c>
+    </row>
+    <row r="122" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F122" s="17">
+        <v>58329.8</v>
+      </c>
+      <c r="G122" s="17">
+        <v>18605.8</v>
+      </c>
+      <c r="H122" s="19">
+        <v>58243.93</v>
+      </c>
+      <c r="I122" s="19">
+        <v>18710.52</v>
+      </c>
+    </row>
+    <row r="123" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F123" s="17">
+        <v>58667.1</v>
+      </c>
+      <c r="G123" s="17">
+        <v>19224</v>
+      </c>
+      <c r="H123" s="19">
+        <v>59111</v>
+      </c>
+      <c r="I123" s="19">
+        <v>19855.3</v>
+      </c>
+    </row>
+    <row r="124" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F124" s="17">
+        <v>58667.1</v>
+      </c>
+      <c r="G124" s="17">
+        <v>19224</v>
+      </c>
+      <c r="H124" s="19">
+        <v>59105.599999999999</v>
+      </c>
+      <c r="I124" s="19">
+        <v>59105.599999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="17">
+        <v>59147.7</v>
+      </c>
+      <c r="G125" s="17">
+        <v>19799.5</v>
+      </c>
+      <c r="H125" s="19">
+        <v>59116.639999999999</v>
+      </c>
+      <c r="I125" s="19">
+        <v>19838.96</v>
+      </c>
+    </row>
+    <row r="126" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F126" s="17">
+        <v>59147.7</v>
+      </c>
+      <c r="G126" s="17">
+        <v>19799.5</v>
+      </c>
+      <c r="H126" s="19">
+        <v>59099.86</v>
+      </c>
+      <c r="I126" s="19">
+        <v>19864.71</v>
+      </c>
+    </row>
+    <row r="127" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="17">
+        <v>58645.3</v>
+      </c>
+      <c r="G127" s="17">
+        <v>20326.7</v>
+      </c>
+      <c r="H127" s="19">
+        <v>59080.41</v>
+      </c>
+      <c r="I127" s="19">
+        <v>20093.09</v>
+      </c>
+    </row>
+    <row r="128" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F128" s="17">
+        <v>58645.3</v>
+      </c>
+      <c r="G128" s="17">
+        <v>20326.7</v>
+      </c>
+      <c r="H128" s="19">
+        <v>58857.97</v>
+      </c>
+      <c r="I128" s="19">
+        <v>20191.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SCADA-Data/爆管数据.xlsx
+++ b/SCADA-Data/爆管数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="压力SPC" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="插值" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t>压力SPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +446,10 @@
     <t>于平均值的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>原数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -484,7 +490,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -639,6 +651,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -921,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BZ92"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:BN62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10533,6 +10546,1770 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>-1.3188235294117701</v>
+      </c>
+      <c r="J3">
+        <v>-2.4741176470588302</v>
+      </c>
+      <c r="O3">
+        <v>-2.03142857142858</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f>B3*Q8+Q16*J3+O3*Q21</f>
+        <v>-337904.35364033736</v>
+      </c>
+      <c r="D7">
+        <f>B3*R8+J3*R16+O3*R21</f>
+        <v>-115508.15893949621</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f>B3+J3+O3</f>
+        <v>-5.8243697478991798</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>58308.47</v>
+      </c>
+      <c r="R8">
+        <v>19057.599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>59674.42</v>
+      </c>
+      <c r="R9">
+        <v>18223.87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>59366.8</v>
+      </c>
+      <c r="R10">
+        <v>18520.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>B7/B8</f>
+        <v>58015.608257394328</v>
+      </c>
+      <c r="D11">
+        <f>D7/B8</f>
+        <v>19831.872621266775</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>59120.5</v>
+      </c>
+      <c r="R11">
+        <v>19859.07</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>57811.39</v>
+      </c>
+      <c r="R12">
+        <v>18679.86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>58177.24</v>
+      </c>
+      <c r="R13">
+        <v>19687.04</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>58335.18</v>
+      </c>
+      <c r="R14">
+        <v>18604.599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>59477.120000000003</v>
+      </c>
+      <c r="R15">
+        <v>19861.61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>-2.1623529411764801</v>
+      </c>
+      <c r="J16">
+        <v>-1.8564705882353001</v>
+      </c>
+      <c r="K16">
+        <v>-2.1157894736842202</v>
+      </c>
+      <c r="P16">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>57273.95</v>
+      </c>
+      <c r="R16">
+        <v>20034.060000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>59135.91</v>
+      </c>
+      <c r="R17">
+        <v>19607.68</v>
+      </c>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>11</v>
+      </c>
+      <c r="Q18">
+        <v>59154.77</v>
+      </c>
+      <c r="R18">
+        <v>20246.66</v>
+      </c>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>12</v>
+      </c>
+      <c r="Q19">
+        <v>57621.21</v>
+      </c>
+      <c r="R19">
+        <v>19404.490000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>13</v>
+      </c>
+      <c r="Q20">
+        <v>59120.34</v>
+      </c>
+      <c r="R20">
+        <v>19392.04</v>
+      </c>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>58308.47</v>
+      </c>
+      <c r="J21">
+        <v>19057.599999999999</v>
+      </c>
+      <c r="P21">
+        <v>14</v>
+      </c>
+      <c r="Q21">
+        <v>58728.76</v>
+      </c>
+      <c r="R21">
+        <v>20088.29</v>
+      </c>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>57273.95</v>
+      </c>
+      <c r="J22">
+        <v>20034.060000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>59154.77</v>
+      </c>
+      <c r="J23">
+        <v>20246.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-2.14</v>
+      </c>
+      <c r="C3" s="20">
+        <v>-2.16</v>
+      </c>
+      <c r="D3" s="20">
+        <v>-1.29</v>
+      </c>
+      <c r="E3">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F3" s="20">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="G3">
+        <v>-0.98</v>
+      </c>
+      <c r="H3">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="I3">
+        <v>-0.87</v>
+      </c>
+      <c r="J3">
+        <v>-0.7</v>
+      </c>
+      <c r="K3">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-1.87</v>
+      </c>
+      <c r="C4" s="20">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="D4">
+        <v>-1.01</v>
+      </c>
+      <c r="E4">
+        <v>-1.08</v>
+      </c>
+      <c r="F4" s="20">
+        <v>-1.22</v>
+      </c>
+      <c r="G4">
+        <v>-1.02</v>
+      </c>
+      <c r="H4">
+        <v>-0.96</v>
+      </c>
+      <c r="I4" s="20">
+        <v>-1.02</v>
+      </c>
+      <c r="J4" s="20">
+        <v>-0.85</v>
+      </c>
+      <c r="K4">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-1.58</v>
+      </c>
+      <c r="C5">
+        <v>-1.02</v>
+      </c>
+      <c r="D5">
+        <v>-0.74</v>
+      </c>
+      <c r="E5">
+        <v>-0.8</v>
+      </c>
+      <c r="F5">
+        <v>-0.94</v>
+      </c>
+      <c r="G5">
+        <v>-0.78</v>
+      </c>
+      <c r="H5">
+        <v>-0.93</v>
+      </c>
+      <c r="I5">
+        <v>-0.61</v>
+      </c>
+      <c r="J5">
+        <v>-0.6</v>
+      </c>
+      <c r="K5">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-1.88</v>
+      </c>
+      <c r="C6">
+        <v>-1.67</v>
+      </c>
+      <c r="D6">
+        <v>-0.76</v>
+      </c>
+      <c r="E6">
+        <v>-0.87</v>
+      </c>
+      <c r="F6" s="20">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="I6">
+        <v>-0.67</v>
+      </c>
+      <c r="J6">
+        <v>-0.62</v>
+      </c>
+      <c r="K6">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-2.02</v>
+      </c>
+      <c r="C7">
+        <v>-1.8</v>
+      </c>
+      <c r="D7">
+        <v>-0.85</v>
+      </c>
+      <c r="E7">
+        <v>-1.01</v>
+      </c>
+      <c r="F7" s="20">
+        <v>-1.25</v>
+      </c>
+      <c r="G7">
+        <v>-1.08</v>
+      </c>
+      <c r="H7">
+        <v>-1.18</v>
+      </c>
+      <c r="I7" s="20">
+        <v>-0.94</v>
+      </c>
+      <c r="J7" s="20">
+        <v>-0.86</v>
+      </c>
+      <c r="K7" s="20">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-1.54</v>
+      </c>
+      <c r="C8">
+        <v>-1.81</v>
+      </c>
+      <c r="D8">
+        <v>-0.82</v>
+      </c>
+      <c r="E8">
+        <v>-0.92</v>
+      </c>
+      <c r="F8" s="20">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G8">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="H8">
+        <v>-0.92</v>
+      </c>
+      <c r="I8">
+        <v>-0.65</v>
+      </c>
+      <c r="J8">
+        <v>-0.69</v>
+      </c>
+      <c r="K8">
+        <v>-0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-1.87</v>
+      </c>
+      <c r="C9">
+        <v>-1.54</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-5.26</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-3.34</v>
+      </c>
+      <c r="F9">
+        <v>-0.89</v>
+      </c>
+      <c r="G9">
+        <v>-0.78</v>
+      </c>
+      <c r="H9">
+        <v>-0.82</v>
+      </c>
+      <c r="I9">
+        <v>-0.7</v>
+      </c>
+      <c r="J9">
+        <v>-0.63</v>
+      </c>
+      <c r="K9">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-1.68</v>
+      </c>
+      <c r="C10">
+        <v>-1.03</v>
+      </c>
+      <c r="D10">
+        <v>-0.72</v>
+      </c>
+      <c r="E10">
+        <v>-0.75</v>
+      </c>
+      <c r="F10">
+        <v>-0.92</v>
+      </c>
+      <c r="G10">
+        <v>-0.82</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-0.47</v>
+      </c>
+      <c r="K10">
+        <v>-0.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="F11" s="20">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G11">
+        <v>-0.98</v>
+      </c>
+      <c r="H11">
+        <v>-0.99</v>
+      </c>
+      <c r="I11">
+        <v>-0.76</v>
+      </c>
+      <c r="J11">
+        <v>-0.79</v>
+      </c>
+      <c r="K11" s="20">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="C12">
+        <v>-1.62</v>
+      </c>
+      <c r="D12">
+        <v>-0.76</v>
+      </c>
+      <c r="E12">
+        <v>-0.96</v>
+      </c>
+      <c r="F12" s="20">
+        <v>-1.18</v>
+      </c>
+      <c r="G12" s="20">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="H12">
+        <v>-1.19</v>
+      </c>
+      <c r="I12">
+        <v>-0.93</v>
+      </c>
+      <c r="J12" s="20">
+        <v>-0.84</v>
+      </c>
+      <c r="K12" s="20">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-2.04</v>
+      </c>
+      <c r="C13" s="20">
+        <v>-2.12</v>
+      </c>
+      <c r="D13">
+        <v>-0.77</v>
+      </c>
+      <c r="E13">
+        <v>-1.05</v>
+      </c>
+      <c r="F13" s="20">
+        <v>-1.51</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1.36</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1.45</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-0.93</v>
+      </c>
+      <c r="K13" s="20">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-1.89</v>
+      </c>
+      <c r="C14">
+        <v>-1.4</v>
+      </c>
+      <c r="D14">
+        <v>-0.61</v>
+      </c>
+      <c r="E14">
+        <v>-0.66</v>
+      </c>
+      <c r="F14">
+        <v>-0.88</v>
+      </c>
+      <c r="G14">
+        <v>-0.71</v>
+      </c>
+      <c r="H14">
+        <v>-0.9</v>
+      </c>
+      <c r="I14">
+        <v>-0.52</v>
+      </c>
+      <c r="J14">
+        <v>-0.49</v>
+      </c>
+      <c r="K14">
+        <v>-0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="C15">
+        <v>-1.67</v>
+      </c>
+      <c r="D15" s="20">
+        <v>-1.06</v>
+      </c>
+      <c r="E15" s="20">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1.3</v>
+      </c>
+      <c r="G15" s="20">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="H15" s="20">
+        <v>-1.34</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="20">
+        <v>-0.84</v>
+      </c>
+      <c r="K15" s="20">
+        <v>-0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="C16">
+        <v>-1.54</v>
+      </c>
+      <c r="D16">
+        <v>-0.94</v>
+      </c>
+      <c r="E16">
+        <v>-1.04</v>
+      </c>
+      <c r="F16" s="20">
+        <v>-1.17</v>
+      </c>
+      <c r="G16">
+        <v>-1.07</v>
+      </c>
+      <c r="H16" s="20">
+        <v>-1.32</v>
+      </c>
+      <c r="I16">
+        <v>-0.87</v>
+      </c>
+      <c r="J16" s="20">
+        <v>-0.9</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f>C11*0.85</f>
+        <v>-1.9209999999999998</v>
+      </c>
+      <c r="D18">
+        <f>D9*M8</f>
+        <v>-4.4710000000000001</v>
+      </c>
+      <c r="E18">
+        <f>E9*M8</f>
+        <v>-2.839</v>
+      </c>
+      <c r="F18">
+        <f>F15*M8</f>
+        <v>-1.105</v>
+      </c>
+      <c r="G18">
+        <f>G13*M8</f>
+        <v>-1.1560000000000001</v>
+      </c>
+      <c r="H18">
+        <f>H13*M8</f>
+        <v>-1.2324999999999999</v>
+      </c>
+      <c r="I18">
+        <f>I13*M8</f>
+        <v>-0.94350000000000001</v>
+      </c>
+      <c r="J18">
+        <f>J13*M8</f>
+        <v>-0.79049999999999998</v>
+      </c>
+      <c r="K18">
+        <f>K16*M8</f>
+        <v>-0.90949999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="C22">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="D22">
+        <v>-1.29</v>
+      </c>
+      <c r="E22">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F22">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="G22">
+        <v>-0.98</v>
+      </c>
+      <c r="H22">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="I22">
+        <v>-0.87</v>
+      </c>
+      <c r="J22">
+        <v>-0.7</v>
+      </c>
+      <c r="K22">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="C23">
+        <v>-2.16</v>
+      </c>
+      <c r="D23">
+        <v>-1.01</v>
+      </c>
+      <c r="E23">
+        <v>-1.08</v>
+      </c>
+      <c r="F23">
+        <v>-1.22</v>
+      </c>
+      <c r="G23">
+        <v>-1.02</v>
+      </c>
+      <c r="H23">
+        <v>-0.96</v>
+      </c>
+      <c r="I23">
+        <v>-1.02</v>
+      </c>
+      <c r="J23">
+        <v>-0.85</v>
+      </c>
+      <c r="K23">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>-2.14</v>
+      </c>
+      <c r="C24">
+        <v>-2.12</v>
+      </c>
+      <c r="D24">
+        <v>-0.74</v>
+      </c>
+      <c r="E24">
+        <v>-0.8</v>
+      </c>
+      <c r="F24">
+        <v>-0.94</v>
+      </c>
+      <c r="G24">
+        <v>-0.78</v>
+      </c>
+      <c r="H24">
+        <v>-0.93</v>
+      </c>
+      <c r="I24">
+        <v>-0.61</v>
+      </c>
+      <c r="J24">
+        <v>-0.6</v>
+      </c>
+      <c r="K24">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>-2.04</v>
+      </c>
+      <c r="C25">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="D25">
+        <v>-0.76</v>
+      </c>
+      <c r="E25">
+        <v>-0.87</v>
+      </c>
+      <c r="F25">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="I25">
+        <v>-0.67</v>
+      </c>
+      <c r="J25">
+        <v>-0.62</v>
+      </c>
+      <c r="K25">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="C26">
+        <v>-1.81</v>
+      </c>
+      <c r="D26">
+        <v>-0.85</v>
+      </c>
+      <c r="E26">
+        <v>-1.01</v>
+      </c>
+      <c r="F26">
+        <v>-1.25</v>
+      </c>
+      <c r="G26">
+        <v>-1.08</v>
+      </c>
+      <c r="H26">
+        <v>-1.18</v>
+      </c>
+      <c r="I26">
+        <v>-0.94</v>
+      </c>
+      <c r="J26">
+        <v>-0.86</v>
+      </c>
+      <c r="K26">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>-2.02</v>
+      </c>
+      <c r="C27">
+        <v>-1.8</v>
+      </c>
+      <c r="D27">
+        <v>-0.82</v>
+      </c>
+      <c r="E27">
+        <v>-0.92</v>
+      </c>
+      <c r="F27">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G27">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="H27">
+        <v>-0.92</v>
+      </c>
+      <c r="I27">
+        <v>-0.65</v>
+      </c>
+      <c r="J27">
+        <v>-0.69</v>
+      </c>
+      <c r="K27">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="C28">
+        <v>-1.67</v>
+      </c>
+      <c r="D28">
+        <v>-5.26</v>
+      </c>
+      <c r="E28">
+        <v>-3.34</v>
+      </c>
+      <c r="F28">
+        <v>-0.89</v>
+      </c>
+      <c r="G28">
+        <v>-0.78</v>
+      </c>
+      <c r="H28">
+        <v>-0.82</v>
+      </c>
+      <c r="I28">
+        <v>-0.7</v>
+      </c>
+      <c r="J28">
+        <v>-0.63</v>
+      </c>
+      <c r="K28">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>-1.89</v>
+      </c>
+      <c r="C29">
+        <v>-1.67</v>
+      </c>
+      <c r="D29">
+        <v>-0.72</v>
+      </c>
+      <c r="E29">
+        <v>-0.75</v>
+      </c>
+      <c r="F29">
+        <v>-0.92</v>
+      </c>
+      <c r="G29">
+        <v>-0.82</v>
+      </c>
+      <c r="H29">
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <v>-0.63</v>
+      </c>
+      <c r="J29">
+        <v>-0.47</v>
+      </c>
+      <c r="K29">
+        <v>-0.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>-1.88</v>
+      </c>
+      <c r="C30">
+        <v>-1.62</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="F30">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G30">
+        <v>-0.98</v>
+      </c>
+      <c r="H30">
+        <v>-0.99</v>
+      </c>
+      <c r="I30">
+        <v>-0.76</v>
+      </c>
+      <c r="J30">
+        <v>-0.79</v>
+      </c>
+      <c r="K30">
+        <v>-1.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>-1.87</v>
+      </c>
+      <c r="C31">
+        <v>-1.54</v>
+      </c>
+      <c r="D31">
+        <v>-0.76</v>
+      </c>
+      <c r="E31">
+        <v>-0.96</v>
+      </c>
+      <c r="F31">
+        <v>-1.18</v>
+      </c>
+      <c r="G31">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="H31">
+        <v>-1.19</v>
+      </c>
+      <c r="I31">
+        <v>-0.93</v>
+      </c>
+      <c r="J31">
+        <v>-0.84</v>
+      </c>
+      <c r="K31">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>-1.87</v>
+      </c>
+      <c r="C32">
+        <v>-1.54</v>
+      </c>
+      <c r="D32">
+        <v>-0.77</v>
+      </c>
+      <c r="E32">
+        <v>-1.05</v>
+      </c>
+      <c r="F32">
+        <v>-1.51</v>
+      </c>
+      <c r="G32">
+        <v>-1.36</v>
+      </c>
+      <c r="H32">
+        <v>-1.45</v>
+      </c>
+      <c r="I32">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="J32">
+        <v>-0.93</v>
+      </c>
+      <c r="K32">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>-1.68</v>
+      </c>
+      <c r="C33">
+        <v>-1.4</v>
+      </c>
+      <c r="D33">
+        <v>-0.61</v>
+      </c>
+      <c r="E33">
+        <v>-0.66</v>
+      </c>
+      <c r="F33">
+        <v>-0.88</v>
+      </c>
+      <c r="G33">
+        <v>-0.71</v>
+      </c>
+      <c r="H33">
+        <v>-0.9</v>
+      </c>
+      <c r="I33">
+        <v>-0.52</v>
+      </c>
+      <c r="J33">
+        <v>-0.49</v>
+      </c>
+      <c r="K33">
+        <v>-0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>-1.58</v>
+      </c>
+      <c r="C34">
+        <v>-1.03</v>
+      </c>
+      <c r="D34">
+        <v>-1.06</v>
+      </c>
+      <c r="E34">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="F34">
+        <v>-1.3</v>
+      </c>
+      <c r="G34">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="H34">
+        <v>-1.34</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>-0.84</v>
+      </c>
+      <c r="K34">
+        <v>-0.94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>-1.54</v>
+      </c>
+      <c r="C35">
+        <v>-1.02</v>
+      </c>
+      <c r="D35">
+        <v>-0.94</v>
+      </c>
+      <c r="E35">
+        <v>-1.04</v>
+      </c>
+      <c r="F35">
+        <v>-1.17</v>
+      </c>
+      <c r="G35">
+        <v>-1.07</v>
+      </c>
+      <c r="H35">
+        <v>-1.32</v>
+      </c>
+      <c r="I35">
+        <v>-0.87</v>
+      </c>
+      <c r="J35">
+        <v>-0.9</v>
+      </c>
+      <c r="K35">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>14</v>
+      </c>
+      <c r="P40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <f>SUM(D41:L41)</f>
+        <v>-1.527796327212021</v>
+      </c>
+      <c r="D41">
+        <v>-0.22</v>
+      </c>
+      <c r="E41">
+        <v>-0.12</v>
+      </c>
+      <c r="F41">
+        <v>-0.12</v>
+      </c>
+      <c r="G41">
+        <v>-0.30083472454090199</v>
+      </c>
+      <c r="H41">
+        <v>-0.12</v>
+      </c>
+      <c r="I41">
+        <v>-8.0000000000000099E-2</v>
+      </c>
+      <c r="J41">
+        <v>-0.32696160267111901</v>
+      </c>
+      <c r="K41">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L41">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>58308.47</v>
+      </c>
+      <c r="Q42">
+        <v>19057.599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>59674.42</v>
+      </c>
+      <c r="Q43">
+        <v>18223.87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f>D41*P42+P43*E41+F41*P46+P47*G41+H41*P50+P51*I41+J41*P52+K41*P54+L41*P55</f>
+        <v>-89522.703374791381</v>
+      </c>
+      <c r="F46">
+        <f>D41*Q42+Q43*E41+F41*Q46+Q47*G41+H41*Q50+Q51*I41+J41*Q52+Q54*K41+L41*Q55</f>
+        <v>-29859.961457762962</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>57811.39</v>
+      </c>
+      <c r="Q46">
+        <v>18679.86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>6</v>
+      </c>
+      <c r="P47">
+        <v>58177.24</v>
+      </c>
+      <c r="Q47">
+        <v>19687.04</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f>F46/B41</f>
+        <v>19544.464746981372</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>9</v>
+      </c>
+      <c r="P50">
+        <v>57273.95</v>
+      </c>
+      <c r="Q50">
+        <v>20034.060000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="P51">
+        <v>59135.91</v>
+      </c>
+      <c r="Q51">
+        <v>19607.68</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>11</v>
+      </c>
+      <c r="P52">
+        <v>59154.77</v>
+      </c>
+      <c r="Q52">
+        <v>20246.66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>58667.1</v>
+      </c>
+      <c r="C53">
+        <v>19224</v>
+      </c>
+      <c r="D53">
+        <v>58595.97</v>
+      </c>
+      <c r="E53">
+        <v>19544.46</v>
+      </c>
+      <c r="G53">
+        <f>B53-D53</f>
+        <v>71.129999999997381</v>
+      </c>
+      <c r="H53">
+        <f>G53*G53</f>
+        <v>5059.4768999996277</v>
+      </c>
+      <c r="I53">
+        <f>C53-E53</f>
+        <v>-320.45999999999913</v>
+      </c>
+      <c r="J53">
+        <f>I53*I53</f>
+        <v>102694.61159999944</v>
+      </c>
+      <c r="K53">
+        <f>H53+J53</f>
+        <v>107754.08849999907</v>
+      </c>
+      <c r="L53">
+        <f>SQRT(K53)</f>
+        <v>328.25917885110096</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f t="shared" ref="G54:G58" si="0">B54-D54</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54:H58" si="1">G54*G54</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:I58" si="2">C54-E54</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54:J58" si="3">I54*I54</f>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ref="K54:K58" si="4">H54+J54</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ref="L54:L58" si="5">SQRT(K54)</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>13</v>
+      </c>
+      <c r="P54">
+        <v>59120.34</v>
+      </c>
+      <c r="Q54">
+        <v>19392.04</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>14</v>
+      </c>
+      <c r="P55">
+        <v>58728.76</v>
+      </c>
+      <c r="Q55">
+        <v>20088.29</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>58645.3</v>
+      </c>
+      <c r="C57">
+        <v>20326.7</v>
+      </c>
+      <c r="D57">
+        <v>58657.22</v>
+      </c>
+      <c r="E57">
+        <v>19634.5</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>-11.919999999998254</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>142.08639999995836</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>692.20000000000073</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>479140.84000000102</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>479282.92640000099</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="5"/>
+        <v>692.30262631308926</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>58645.3</v>
+      </c>
+      <c r="C58">
+        <v>20326.7</v>
+      </c>
+      <c r="D58">
+        <v>58583.63</v>
+      </c>
+      <c r="E58">
+        <v>19976.919999999998</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>61.67000000000553</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>3803.1889000006822</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>349.78000000000247</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>122346.04840000173</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>126149.23730000241</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="5"/>
+        <v>355.17493900893743</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C22:C35">
+    <sortCondition ref="C22"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19034,7 +20811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:BX65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
@@ -42321,8 +44098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80:D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
